--- a/DragonManiaLegends Enchantments.xlsx
+++ b/DragonManiaLegends Enchantments.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6548fa38de20003a/Documents/Office/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\DragonManiaLegendsImageAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13520" windowHeight="13890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13520" windowHeight="13890" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
-    <sheet name="Gifs, Normal" sheetId="7" r:id="rId2"/>
+    <sheet name="Gifts, Normal" sheetId="7" r:id="rId2"/>
     <sheet name="Special300" sheetId="4" r:id="rId3"/>
     <sheet name="Special600" sheetId="5" r:id="rId4"/>
     <sheet name="Rare300" sheetId="6" r:id="rId5"/>
     <sheet name="Rare600" sheetId="2" r:id="rId6"/>
     <sheet name="Number of rare chests lvl 4 enc" sheetId="3" r:id="rId7"/>
     <sheet name="300+ rare chests lvl 4" sheetId="8" r:id="rId8"/>
+    <sheet name="600+ BattlChests lvl 4" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -44,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alex Rune Berg:</t>
         </r>
@@ -53,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Simulation says only 4 % probability of seeing the first 16 I got, so either I was 'unlucky', or they changed the game. Probably the former.</t>
@@ -180,8 +181,66 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alex Rune Berg</author>
+  </authors>
+  <commentList>
+    <comment ref="M7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex Rune Berg:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the number of extraordinary materials we get from rare chests. Summing of all elements.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex Rune Berg:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the number of extraordinary materials we get from normal chests in the course of getting 20 wins to reach a rare chest. Summing of all elements.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="110">
   <si>
     <t>Fire</t>
   </si>
@@ -473,6 +532,47 @@
   <si>
     <t>Remaining requirement</t>
   </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Dragon Requirements -&gt; </t>
+  </si>
+  <si>
+    <t>Proof deleted on purpose</t>
+  </si>
+  <si>
+    <t>Cards pr Battle chest</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>Normal
+Special</t>
+  </si>
+  <si>
+    <t>Normal
+Rare</t>
+  </si>
+  <si>
+    <t>Number of this chest-type pr Battle Chest</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>Battle chests pr Epic Level 4 Enchantment</t>
+  </si>
+  <si>
+    <t>Battle chests pr Legend Level 4 Enchantment</t>
+  </si>
+  <si>
+    <t>Battle Chest - TODO</t>
+  </si>
+  <si>
+    <t>Chests/day</t>
+  </si>
 </sst>
 </file>
 
@@ -521,17 +621,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -575,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -629,6 +731,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,673 +1068,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="53" t="s">
         <v>42</v>
       </c>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="54">
+        <v>18</v>
+      </c>
+      <c r="C2" s="55">
         <f t="shared" ref="C2:C12" si="0">B2/B$13</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1">
+        <v>8.3720930232558138E-2</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="54">
+        <v>34</v>
+      </c>
+      <c r="F2" s="55">
         <f t="shared" ref="F2:F12" si="1">E2/E$13</f>
-        <v>0.11148648648648649</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2">
-        <v>265</v>
-      </c>
-      <c r="I2" s="1">
+        <v>9.7701149425287362E-2</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="54">
+        <v>303</v>
+      </c>
+      <c r="I2" s="55">
         <f t="shared" ref="I2:I12" si="2">H2/H$13</f>
-        <v>8.8362787595865286E-2</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2">
+        <v>8.630019937339789E-2</v>
+      </c>
+      <c r="J2" s="55"/>
+      <c r="K2" s="54">
         <v>49</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="55">
         <f t="shared" ref="L2:L12" si="3">K2/K$13</f>
         <v>0.11421911421911422</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="15">
+      <c r="M2" s="55"/>
+      <c r="N2" s="56">
         <v>287</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="55">
         <f t="shared" ref="O2:O12" si="4">N2/N$13</f>
         <v>9.8086124401913874E-2</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="56">
         <f>N2-B2</f>
-        <v>271</v>
-      </c>
-      <c r="R2" s="1">
+        <v>269</v>
+      </c>
+      <c r="R2" s="55">
         <f t="shared" ref="R2:R12" si="5">Q2/Q$13</f>
-        <v>9.8689002184996363E-2</v>
-      </c>
+        <v>9.9225378089265959E-2</v>
+      </c>
+      <c r="S2" s="54"/>
       <c r="U2" s="1"/>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="54">
+        <v>25</v>
+      </c>
+      <c r="C3" s="55">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="54">
+        <v>53</v>
+      </c>
+      <c r="F3" s="55">
         <f t="shared" si="1"/>
-        <v>0.13851351351351351</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3">
-        <v>366</v>
-      </c>
-      <c r="I3" s="1">
+        <v>0.15229885057471265</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54">
+        <v>445</v>
+      </c>
+      <c r="I3" s="55">
         <f t="shared" si="2"/>
-        <v>0.12204068022674225</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3">
+        <v>0.12674451723155797</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="54">
         <v>58</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="55">
         <f t="shared" si="3"/>
         <v>0.1351981351981352</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="15">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56">
         <v>376</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="55">
         <f t="shared" si="4"/>
         <v>0.12850307587149692</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="56">
         <f t="shared" ref="Q3:Q12" si="6">N3-B3</f>
-        <v>356</v>
-      </c>
-      <c r="R3" s="1">
+        <v>351</v>
+      </c>
+      <c r="R3" s="55">
         <f t="shared" si="5"/>
-        <v>0.12964311726147124</v>
-      </c>
+        <v>0.12947251936554777</v>
+      </c>
+      <c r="S3" s="54"/>
       <c r="U3" s="1"/>
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="54">
+        <v>25</v>
+      </c>
+      <c r="C4" s="55">
         <f t="shared" si="0"/>
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="54">
+        <v>44</v>
+      </c>
+      <c r="F4" s="55">
         <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4">
-        <v>350</v>
-      </c>
-      <c r="I4" s="1">
+        <v>0.12643678160919541</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54">
+        <v>408</v>
+      </c>
+      <c r="I4" s="55">
         <f t="shared" si="2"/>
-        <v>0.11670556852284095</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4">
+        <v>0.11620620905724864</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54">
         <v>48</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="55">
         <f t="shared" si="3"/>
         <v>0.11188811188811189</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="15">
+      <c r="M4" s="55"/>
+      <c r="N4" s="56">
         <v>333</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="55">
         <f t="shared" si="4"/>
         <v>0.11380724538619276</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="56">
         <f t="shared" si="6"/>
-        <v>312</v>
-      </c>
-      <c r="R4" s="1">
+        <v>308</v>
+      </c>
+      <c r="R4" s="55">
         <f t="shared" si="5"/>
-        <v>0.11361981063364894</v>
-      </c>
+        <v>0.11361121357432681</v>
+      </c>
+      <c r="S4" s="54"/>
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="54">
+        <v>27</v>
+      </c>
+      <c r="C5" s="55">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1">
+        <v>0.12558139534883722</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="54">
+        <v>35</v>
+      </c>
+      <c r="F5" s="55">
         <f t="shared" si="1"/>
-        <v>9.1216216216216214E-2</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5">
-        <v>370</v>
-      </c>
-      <c r="I5" s="1">
+        <v>0.10057471264367816</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54">
+        <v>433</v>
+      </c>
+      <c r="I5" s="55">
         <f t="shared" si="2"/>
-        <v>0.12337445815271757</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5">
+        <v>0.12332668755340359</v>
+      </c>
+      <c r="J5" s="55"/>
+      <c r="K5" s="54">
         <v>42</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="55">
         <f t="shared" si="3"/>
         <v>9.7902097902097904E-2</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="15">
+      <c r="M5" s="55"/>
+      <c r="N5" s="56">
         <v>348</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="55">
         <f t="shared" si="4"/>
         <v>0.11893369788106631</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="P5" s="54"/>
+      <c r="Q5" s="56">
         <f t="shared" si="6"/>
-        <v>328</v>
-      </c>
-      <c r="R5" s="1">
+        <v>321</v>
+      </c>
+      <c r="R5" s="55">
         <f t="shared" si="5"/>
-        <v>0.11944646758922069</v>
-      </c>
+        <v>0.1184064920693471</v>
+      </c>
+      <c r="S5" s="54"/>
       <c r="U5" s="1"/>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="54">
+        <v>15</v>
+      </c>
+      <c r="C6" s="55">
         <f t="shared" si="0"/>
-        <v>7.2222222222222215E-2</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1">
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="54">
+        <v>37</v>
+      </c>
+      <c r="F6" s="55">
         <f t="shared" si="1"/>
-        <v>0.11486486486486487</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6">
-        <v>301</v>
-      </c>
-      <c r="I6" s="1">
+        <v>0.10632183908045977</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54">
+        <v>359</v>
+      </c>
+      <c r="I6" s="55">
         <f t="shared" si="2"/>
-        <v>0.10036678892964321</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6">
+        <v>0.10225007120478496</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="54">
         <v>53</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="55">
         <f t="shared" si="3"/>
         <v>0.12354312354312354</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="15">
+      <c r="M6" s="55"/>
+      <c r="N6" s="56">
         <v>298</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="55">
         <f t="shared" si="4"/>
         <v>0.10184552289815448</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="P6" s="54"/>
+      <c r="Q6" s="56">
         <f t="shared" si="6"/>
-        <v>285</v>
-      </c>
-      <c r="R6" s="1">
+        <v>283</v>
+      </c>
+      <c r="R6" s="55">
         <f t="shared" si="5"/>
-        <v>0.10378732702112163</v>
-      </c>
+        <v>0.10438952416082627</v>
+      </c>
+      <c r="S6" s="54"/>
       <c r="U6" s="1"/>
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="54">
+        <v>16</v>
+      </c>
+      <c r="C7" s="55">
         <f t="shared" si="0"/>
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1">
+        <v>7.441860465116279E-2</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="54">
+        <v>37</v>
+      </c>
+      <c r="F7" s="55">
         <f t="shared" si="1"/>
-        <v>0.10135135135135136</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7">
-        <v>287</v>
-      </c>
-      <c r="I7" s="1">
+        <v>0.10632183908045977</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54">
+        <v>328</v>
+      </c>
+      <c r="I7" s="55">
         <f t="shared" si="2"/>
-        <v>9.5698566188729572E-2</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7">
+        <v>9.342067786955284E-2</v>
+      </c>
+      <c r="J7" s="55"/>
+      <c r="K7" s="54">
         <v>42</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="55">
         <f t="shared" si="3"/>
         <v>9.7902097902097904E-2</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="15">
+      <c r="M7" s="55"/>
+      <c r="N7" s="56">
         <v>283</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="55">
         <f t="shared" si="4"/>
         <v>9.6719070403280927E-2</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="P7" s="54"/>
+      <c r="Q7" s="56">
         <f t="shared" si="6"/>
-        <v>266</v>
-      </c>
-      <c r="R7" s="1">
+        <v>267</v>
+      </c>
+      <c r="R7" s="55">
         <f t="shared" si="5"/>
-        <v>9.6868171886380194E-2</v>
-      </c>
+        <v>9.8487642936185907E-2</v>
+      </c>
+      <c r="S7" s="54"/>
       <c r="U7" s="1"/>
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="54">
+        <v>20</v>
+      </c>
+      <c r="C8" s="55">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="54">
+        <v>22</v>
+      </c>
+      <c r="F8" s="55">
         <f t="shared" si="1"/>
-        <v>6.0810810810810814E-2</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8">
-        <v>297</v>
-      </c>
-      <c r="I8" s="1">
+        <v>6.3218390804597707E-2</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54">
+        <v>335</v>
+      </c>
+      <c r="I8" s="55">
         <f t="shared" si="2"/>
-        <v>9.903301100366789E-2</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8">
+        <v>9.5414411848476224E-2</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="K8" s="54">
         <v>54</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="55">
         <f t="shared" si="3"/>
         <v>0.12587412587412589</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="15">
+      <c r="M8" s="55"/>
+      <c r="N8" s="56">
         <v>290</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="55">
         <f t="shared" si="4"/>
         <v>9.9111414900888581E-2</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="P8" s="54"/>
+      <c r="Q8" s="56">
         <f t="shared" si="6"/>
-        <v>272</v>
-      </c>
-      <c r="R8" s="1">
+        <v>270</v>
+      </c>
+      <c r="R8" s="55">
         <f t="shared" si="5"/>
-        <v>9.9053168244719589E-2</v>
-      </c>
+        <v>9.9594245665805978E-2</v>
+      </c>
+      <c r="S8" s="54"/>
       <c r="U8" s="1"/>
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="54">
+        <v>23</v>
+      </c>
+      <c r="C9" s="55">
         <f t="shared" si="0"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1">
+        <v>0.10697674418604651</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="54">
+        <v>34</v>
+      </c>
+      <c r="F9" s="55">
         <f t="shared" si="1"/>
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9">
-        <v>283</v>
-      </c>
-      <c r="I9" s="1">
+        <v>9.7701149425287362E-2</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54">
+        <v>330</v>
+      </c>
+      <c r="I9" s="55">
         <f t="shared" si="2"/>
-        <v>9.4364788262754254E-2</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9">
+        <v>9.3990316149245232E-2</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="54">
         <v>37</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="55">
         <f t="shared" si="3"/>
         <v>8.6247086247086241E-2</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="15">
+      <c r="M9" s="55"/>
+      <c r="N9" s="56">
         <v>264</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="55">
         <f t="shared" si="4"/>
         <v>9.0225563909774431E-2</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="P9" s="54"/>
+      <c r="Q9" s="56">
         <f t="shared" si="6"/>
-        <v>248</v>
-      </c>
-      <c r="R9" s="1">
+        <v>241</v>
+      </c>
+      <c r="R9" s="55">
         <f t="shared" si="5"/>
-        <v>9.0313182811361983E-2</v>
-      </c>
+        <v>8.8897085946145329E-2</v>
+      </c>
+      <c r="S9" s="54"/>
       <c r="U9" s="1"/>
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="54">
+        <v>15</v>
+      </c>
+      <c r="C10" s="55">
         <f t="shared" si="0"/>
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1">
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="54">
+        <v>17</v>
+      </c>
+      <c r="F10" s="55">
         <f t="shared" si="1"/>
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10">
-        <v>183</v>
-      </c>
-      <c r="I10" s="1">
+        <v>4.8850574712643681E-2</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54">
+        <v>217</v>
+      </c>
+      <c r="I10" s="55">
         <f t="shared" si="2"/>
-        <v>6.1020340113371124E-2</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10">
+        <v>6.1805753346624893E-2</v>
+      </c>
+      <c r="J10" s="55"/>
+      <c r="K10" s="54">
         <v>18</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="55">
         <f t="shared" si="3"/>
         <v>4.195804195804196E-2</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="15">
+      <c r="M10" s="55"/>
+      <c r="N10" s="56">
         <v>165</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="55">
         <f t="shared" si="4"/>
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="P10" s="54"/>
+      <c r="Q10" s="56">
         <f t="shared" si="6"/>
-        <v>151</v>
-      </c>
-      <c r="R10" s="1">
+        <v>150</v>
+      </c>
+      <c r="R10" s="55">
         <f t="shared" si="5"/>
-        <v>5.4989075018208301E-2</v>
-      </c>
+        <v>5.5330136481003322E-2</v>
+      </c>
+      <c r="S10" s="54"/>
       <c r="U10" s="1"/>
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="54">
+        <v>15</v>
+      </c>
+      <c r="C11" s="55">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1">
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="54">
+        <v>27</v>
+      </c>
+      <c r="F11" s="55">
         <f t="shared" si="1"/>
-        <v>7.0945945945945943E-2</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11">
-        <v>194</v>
-      </c>
-      <c r="I11" s="1">
+        <v>7.7586206896551727E-2</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54">
+        <v>225</v>
+      </c>
+      <c r="I11" s="55">
         <f t="shared" si="2"/>
-        <v>6.4688229409803275E-2</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11">
+        <v>6.4084306465394481E-2</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="54">
         <v>18</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="55">
         <f t="shared" si="3"/>
         <v>4.195804195804196E-2</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="15">
+      <c r="M11" s="55"/>
+      <c r="N11" s="56">
         <v>183</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="55">
         <f t="shared" si="4"/>
         <v>6.2542720437457275E-2</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="P11" s="54"/>
+      <c r="Q11" s="56">
         <f t="shared" si="6"/>
-        <v>171</v>
-      </c>
-      <c r="R11" s="1">
+        <v>168</v>
+      </c>
+      <c r="R11" s="55">
         <f t="shared" si="5"/>
-        <v>6.2272396212672977E-2</v>
-      </c>
+        <v>6.196975285872372E-2</v>
+      </c>
+      <c r="S11" s="54"/>
       <c r="U11" s="1"/>
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="54">
+        <v>16</v>
+      </c>
+      <c r="C12" s="55">
         <f t="shared" si="0"/>
-        <v>7.2222222222222215E-2</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1">
+        <v>7.441860465116279E-2</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="54">
+        <v>8</v>
+      </c>
+      <c r="F12" s="55">
         <f t="shared" si="1"/>
-        <v>2.364864864864865E-2</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12">
-        <v>103</v>
-      </c>
-      <c r="I12" s="1">
+        <v>2.2988505747126436E-2</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54">
+        <v>128</v>
+      </c>
+      <c r="I12" s="55">
         <f t="shared" si="2"/>
-        <v>3.4344781593864622E-2</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12">
+        <v>3.6456849900313303E-2</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="54">
         <v>10</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="55">
         <f t="shared" si="3"/>
         <v>2.3310023310023312E-2</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="15">
+      <c r="M12" s="55"/>
+      <c r="N12" s="56">
         <v>99</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="55">
         <f t="shared" si="4"/>
         <v>3.3834586466165412E-2</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="P12" s="54"/>
+      <c r="Q12" s="56">
         <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="R12" s="1">
+        <v>83</v>
+      </c>
+      <c r="R12" s="55">
         <f t="shared" si="5"/>
-        <v>3.1318281136198105E-2</v>
-      </c>
+        <v>3.0616008852821838E-2</v>
+      </c>
+      <c r="S12" s="54"/>
       <c r="U12" s="1"/>
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B13">
+      <c r="A13" s="51"/>
+      <c r="B13" s="54">
         <f>SUM(B2:B12)</f>
-        <v>180</v>
-      </c>
-      <c r="E13">
+        <v>215</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54">
         <f>SUM(E2:E12)</f>
-        <v>296</v>
-      </c>
-      <c r="H13">
+        <v>348</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54">
         <f>SUM(H2:H12)</f>
-        <v>2999</v>
-      </c>
-      <c r="K13">
+        <v>3511</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54">
         <f>SUM(K2:K12)</f>
         <v>429</v>
       </c>
-      <c r="N13">
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54">
         <f>SUM(N2:N12)</f>
         <v>2926</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="56">
         <f>SUM(Q2:Q12)</f>
-        <v>2746</v>
-      </c>
-      <c r="R13" s="1"/>
+        <v>2711</v>
+      </c>
+      <c r="R13" s="55"/>
+      <c r="S13" s="54"/>
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="54">
         <f>B13/5</f>
-        <v>36</v>
-      </c>
-      <c r="E14">
+        <v>43</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54">
         <f>E13/4</f>
-        <v>74</v>
-      </c>
-      <c r="H14">
+        <v>87</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54">
         <f>H13/4</f>
-        <v>749.75</v>
-      </c>
-      <c r="K14">
+        <v>877.75</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54">
         <f>K13/3</f>
         <v>143</v>
       </c>
-      <c r="N14">
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54">
         <f>SUM(B14:K14)</f>
-        <v>1002.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>1150.75</v>
+      </c>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="51"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1642,7 +1857,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1658,7 +1873,7 @@
       <c r="O18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -1674,7 +1889,7 @@
       <c r="O19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
@@ -1687,7 +1902,7 @@
       <c r="O20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
@@ -1700,20 +1915,27 @@
       <c r="O21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
@@ -1726,7 +1948,7 @@
       <c r="O23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
@@ -1739,7 +1961,7 @@
       <c r="O24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
@@ -1752,7 +1974,7 @@
       <c r="O25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
@@ -1765,7 +1987,7 @@
       <c r="O26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
@@ -1778,7 +2000,7 @@
       <c r="O27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
@@ -1791,9 +2013,109 @@
       <c r="O28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="N29"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="1"/>
       <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="N34"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="N35"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="1"/>
+      <c r="R39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4931,11 +5253,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="11" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5004,31 +5326,31 @@
       </c>
       <c r="B2" s="32">
         <f t="shared" ref="B2:G2" si="0">COUNT(B12:B10006)</f>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="32">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F2" s="32">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:F2)</f>
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -5059,23 +5381,23 @@
       </c>
       <c r="B3" s="33">
         <f t="shared" ref="B3:F3" si="1">B2/$H2</f>
-        <v>0.33076923076923076</v>
+        <v>0.31764705882352939</v>
       </c>
       <c r="C3" s="11">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.11176470588235295</v>
       </c>
       <c r="D3" s="33">
         <f t="shared" si="1"/>
-        <v>0.13076923076923078</v>
+        <v>0.12941176470588237</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" si="1"/>
-        <v>0.26923076923076922</v>
+        <v>0.27647058823529413</v>
       </c>
       <c r="F3" s="33">
         <f t="shared" si="1"/>
-        <v>0.16923076923076924</v>
+        <v>0.16470588235294117</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="3" t="str">
@@ -5139,27 +5461,27 @@
       </c>
       <c r="L4">
         <f>L2+B2</f>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M4">
         <f>M2+C2</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N4">
         <f>N2+D2</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O4">
         <f>O2+E2</f>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="P4">
         <f>P2+F2</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q4">
         <f>SUM(L4:P4)</f>
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -5176,7 +5498,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="3"/>
@@ -5188,31 +5510,31 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" si="3"/>
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="H5" s="3">
         <f>H2/5</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L5" s="7">
         <f>L4/$Q4</f>
-        <v>0.32666666666666666</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="M5" s="7">
         <f>M4/$Q4</f>
-        <v>0.10666666666666667</v>
+        <v>0.11578947368421053</v>
       </c>
       <c r="N5" s="7">
         <f>N4/$Q4</f>
-        <v>0.12666666666666668</v>
+        <v>0.12631578947368421</v>
       </c>
       <c r="O5" s="7">
         <f>O4/$Q4</f>
-        <v>0.27333333333333332</v>
+        <v>0.27894736842105261</v>
       </c>
       <c r="P5" s="7">
         <f>P4/$Q4</f>
-        <v>0.16666666666666666</v>
+        <v>0.16315789473684211</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5221,54 +5543,54 @@
       </c>
       <c r="B6" s="35">
         <f t="shared" ref="B6:G6" si="4">AVERAGE(B$12:B$10003)</f>
-        <v>38.093023255813954</v>
+        <v>37.537037037037038</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="4"/>
-        <v>21.692307692307693</v>
+        <v>21.894736842105264</v>
       </c>
       <c r="D6" s="35">
         <f t="shared" si="4"/>
-        <v>13.352941176470589</v>
+        <v>13.772727272727273</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="4"/>
-        <v>8.8857142857142861</v>
+        <v>8.8085106382978715</v>
       </c>
       <c r="F6" s="35">
         <f t="shared" si="4"/>
-        <v>8.0909090909090917</v>
+        <v>8</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="4"/>
-        <v>578.16</v>
+        <v>581.87878787878788</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L6">
         <f>L4+Rare300!B2</f>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M6">
         <f>M4+Rare300!C2</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <f>N4+Rare300!D2</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O6">
         <f>O4+Rare300!E2</f>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="P6">
         <f>P4+Rare300!F2</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <f>SUM(L6:P6)</f>
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -5303,23 +5625,23 @@
       <c r="J7" s="30"/>
       <c r="L7" s="7">
         <f>L6/$Q6</f>
-        <v>0.32765957446808508</v>
+        <v>0.32</v>
       </c>
       <c r="M7" s="7">
         <f>M6/$Q6</f>
-        <v>0.10638297872340426</v>
+        <v>0.11272727272727273</v>
       </c>
       <c r="N7" s="7">
         <f>N6/$Q6</f>
-        <v>0.14042553191489363</v>
+        <v>0.13818181818181818</v>
       </c>
       <c r="O7" s="7">
         <f>O6/$Q6</f>
-        <v>0.28936170212765955</v>
+        <v>0.29090909090909089</v>
       </c>
       <c r="P7" s="7">
         <f>P6/$Q6</f>
-        <v>0.13617021276595745</v>
+        <v>0.13818181818181818</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -5336,7 +5658,7 @@
       </c>
       <c r="D8" s="34">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="40">
         <f t="shared" si="5"/>
@@ -5348,7 +5670,7 @@
       </c>
       <c r="G8" s="5">
         <f>(G5-G4+1)</f>
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="30"/>
@@ -5372,7 +5694,7 @@
       </c>
       <c r="D9" s="33">
         <f>D8/D7</f>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="E9" s="41">
         <f t="shared" ref="E9:F9" si="7">E8/E7</f>
@@ -5384,7 +5706,7 @@
       </c>
       <c r="G9" s="41">
         <f>G8/G7</f>
-        <v>0.90033222591362128</v>
+        <v>0.96345514950166111</v>
       </c>
       <c r="H9" s="3"/>
       <c r="J9" s="30"/>
@@ -5403,7 +5725,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="8"/>
-        <v>0.13502280266756744</v>
+        <v>1</v>
       </c>
       <c r="E10" s="41">
         <f t="shared" si="8"/>
@@ -5415,7 +5737,7 @@
       </c>
       <c r="G10" s="41">
         <f>POWER(G9,G2)</f>
-        <v>7.245525379254926E-2</v>
+        <v>0.29271135900838885</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="30"/>
@@ -6147,20 +6469,525 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
+      <c r="A70" s="13">
+        <v>42778</v>
+      </c>
+      <c r="B70" s="37">
+        <v>32</v>
+      </c>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70" s="37">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70" s="37">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>556</v>
+      </c>
+      <c r="H70">
+        <v>600</v>
+      </c>
+      <c r="I70">
+        <v>600</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="13"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="13"/>
+      <c r="A72" s="13">
+        <v>42782</v>
+      </c>
+      <c r="B72" s="37">
+        <v>35</v>
+      </c>
+      <c r="D72" s="37">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>13</v>
+      </c>
+      <c r="F72" s="37">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>472</v>
+      </c>
+      <c r="H72">
+        <v>600</v>
+      </c>
+      <c r="I72">
+        <v>600</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="13"/>
+      <c r="F73" s="37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="13">
+        <v>42784</v>
+      </c>
+      <c r="B74" s="37">
+        <v>36</v>
+      </c>
+      <c r="C74">
+        <v>22</v>
+      </c>
+      <c r="E74">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>708</v>
+      </c>
+      <c r="H74">
+        <v>600</v>
+      </c>
+      <c r="I74">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="13"/>
+      <c r="E75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="13"/>
+      <c r="E76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="13">
+        <v>42785</v>
+      </c>
+      <c r="B77" s="37">
+        <v>31</v>
+      </c>
+      <c r="D77" s="37">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77" s="37">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>750</v>
+      </c>
+      <c r="H77">
+        <v>600</v>
+      </c>
+      <c r="I77">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="13"/>
+      <c r="F78" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="13">
+        <v>42786</v>
+      </c>
+      <c r="B79" s="37">
+        <v>32</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79" s="37">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>602</v>
+      </c>
+      <c r="H79">
+        <v>600</v>
+      </c>
+      <c r="I79">
+        <v>600</v>
+      </c>
+      <c r="J79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="13"/>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="13">
+        <v>42787</v>
+      </c>
+      <c r="B81" s="37">
+        <v>43</v>
+      </c>
+      <c r="D81" s="37">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>7</v>
+      </c>
+      <c r="G81">
+        <v>691</v>
+      </c>
+      <c r="H81">
+        <v>600</v>
+      </c>
+      <c r="I81">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="13"/>
+      <c r="B82" s="37">
+        <v>43</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="13">
+        <v>42788</v>
+      </c>
+      <c r="B83" s="37">
+        <v>33</v>
+      </c>
+      <c r="C83">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>8</v>
+      </c>
+      <c r="G83">
+        <v>503</v>
+      </c>
+      <c r="H83">
+        <v>600</v>
+      </c>
+      <c r="I83">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="13"/>
+      <c r="B84" s="37">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="13">
+        <v>42789</v>
+      </c>
+      <c r="B85" s="37">
+        <v>37</v>
+      </c>
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="E85">
+        <v>11</v>
+      </c>
+      <c r="F85" s="37">
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <v>466</v>
+      </c>
+      <c r="H85">
+        <v>600</v>
+      </c>
+      <c r="I85">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="13"/>
+      <c r="B86" s="37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="13"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="13"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="13"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="13"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="13"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="13"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="13"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="13"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="13"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="13"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="13"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="13"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="13"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="13"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="13"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="13"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="13"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="13"/>
       <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="13"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="13"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="13"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="13"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="13"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="13"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="13"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="13"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="13"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="13"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="13"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="13"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="13"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="13"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="13"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="13"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="13"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="13"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="13"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="13"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="13"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="13"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="13"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="13"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="13"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="13"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="13"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="13"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="13"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="13"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="13"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="13"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="13"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="13"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="13"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="13"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="13"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="13"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="13"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="13"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="13"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="13"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="13"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="13"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6173,7 +7000,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6191,7 +7018,7 @@
     <col min="20" max="20" width="16.453125" customWidth="1"/>
     <col min="21" max="21" width="16.81640625" customWidth="1"/>
     <col min="22" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6229,8 +7056,7 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <f>20-B3</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>49</v>
@@ -6276,23 +7102,23 @@
       </c>
       <c r="H4" s="10">
         <f>Rare600!B6</f>
-        <v>38.093023255813954</v>
+        <v>37.537037037037038</v>
       </c>
       <c r="I4" s="10">
         <f>Rare600!C6</f>
-        <v>21.692307692307693</v>
+        <v>21.894736842105264</v>
       </c>
       <c r="J4" s="10">
         <f>Rare600!D6</f>
-        <v>13.352941176470589</v>
+        <v>13.772727272727273</v>
       </c>
       <c r="K4" s="10">
         <f>Rare600!E6</f>
-        <v>8.8857142857142861</v>
+        <v>8.8085106382978715</v>
       </c>
       <c r="L4" s="10">
         <f>Rare600!F6</f>
-        <v>8.0909090909090917</v>
+        <v>8</v>
       </c>
       <c r="M4" s="18"/>
       <c r="O4" s="9" t="s">
@@ -6312,23 +7138,23 @@
       </c>
       <c r="H5" s="8">
         <f>Rare600!L5</f>
-        <v>0.32666666666666666</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="I5" s="8">
         <f>Rare600!M5</f>
-        <v>0.10666666666666667</v>
+        <v>0.11578947368421053</v>
       </c>
       <c r="J5" s="8">
         <f>Rare600!N5</f>
-        <v>0.12666666666666668</v>
+        <v>0.12631578947368421</v>
       </c>
       <c r="K5" s="8">
         <f>Rare600!O5</f>
-        <v>0.27333333333333332</v>
+        <v>0.27894736842105261</v>
       </c>
       <c r="L5" s="8">
         <f>Rare600!P5</f>
-        <v>0.16666666666666666</v>
+        <v>0.16315789473684211</v>
       </c>
       <c r="M5" s="18"/>
       <c r="O5" s="8"/>
@@ -6346,23 +7172,23 @@
       </c>
       <c r="H6" s="22">
         <f>H4*H5/H$2</f>
-        <v>1.2962209302325582E-2</v>
+        <v>1.234770955165692E-2</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6:L6" si="0">I4*I5/I$2</f>
-        <v>9.6410256410256433E-3</v>
+        <v>1.0563250230840258E-2</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="0"/>
-        <v>3.5236928104575169E-2</v>
+        <v>3.6244019138755988E-2</v>
       </c>
       <c r="K6" s="22">
         <f t="shared" si="0"/>
-        <v>0.30359523809523808</v>
+        <v>0.30713885778275468</v>
       </c>
       <c r="L6" s="22">
         <f t="shared" si="0"/>
-        <v>1.3484848484848486</v>
+        <v>1.3052631578947369</v>
       </c>
       <c r="M6" s="18"/>
       <c r="O6" s="8"/>
@@ -6387,7 +7213,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="18">
         <f>SUM(H6:L6)*H7</f>
-        <v>8.5496012481400658</v>
+        <v>8.3577849729937235</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -6425,15 +7251,15 @@
         <v>37</v>
       </c>
       <c r="H9" s="8">
-        <f>'Gifs, Normal'!B16</f>
+        <f>'Gifts, Normal'!B16</f>
         <v>0.38260869565217392</v>
       </c>
       <c r="I9" s="8">
-        <f>'Gifs, Normal'!C16</f>
+        <f>'Gifts, Normal'!C16</f>
         <v>0.24347826086956523</v>
       </c>
       <c r="J9" s="8">
-        <f>'Gifs, Normal'!D16</f>
+        <f>'Gifts, Normal'!D16</f>
         <v>0.37391304347826088</v>
       </c>
       <c r="K9" s="8"/>
@@ -6472,12 +7298,12 @@
       </c>
       <c r="H11" s="15">
         <f>4*$B$2</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="18">
         <f>SUM(H10:L10)*H11</f>
-        <v>0.84913043478260875</v>
+        <v>0.80195652173913046</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="18"/>
@@ -6621,19 +7447,19 @@
         <v>37</v>
       </c>
       <c r="H17" s="8">
-        <f>'Gifs, Normal'!B22</f>
+        <f>'Gifts, Normal'!B$22</f>
         <v>0.2231404958677686</v>
       </c>
       <c r="I17" s="8">
-        <f>'Gifs, Normal'!C22</f>
+        <f>'Gifts, Normal'!C$22</f>
         <v>0.28099173553719009</v>
       </c>
       <c r="J17" s="8">
-        <f>'Gifs, Normal'!D22</f>
+        <f>'Gifts, Normal'!D$22</f>
         <v>0.47107438016528924</v>
       </c>
       <c r="K17" s="8">
-        <f>'Gifs, Normal'!E22</f>
+        <f>'Gifts, Normal'!E$22</f>
         <v>2.4793388429752067E-2</v>
       </c>
       <c r="L17" s="8"/>
@@ -6671,7 +7497,7 @@
       </c>
       <c r="H19" s="15">
         <f>4*$B$2</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -6679,7 +7505,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="18">
         <f>SUM(H18:L18)*H19</f>
-        <v>1.156301652892562</v>
+        <v>1.0920626721763087</v>
       </c>
     </row>
     <row r="20" spans="6:23" x14ac:dyDescent="0.35">
@@ -6690,19 +7516,19 @@
         <v>36</v>
       </c>
       <c r="H20" s="10">
-        <f>Special600!B6</f>
+        <f>Special600!B$6</f>
         <v>16.2</v>
       </c>
       <c r="I20" s="10">
-        <f>Special600!C6</f>
+        <f>Special600!C$6</f>
         <v>8.5652173913043477</v>
       </c>
       <c r="J20" s="10">
-        <f>Special600!D6</f>
+        <f>Special600!D$6</f>
         <v>2.5757575757575757</v>
       </c>
       <c r="K20" s="10">
-        <f>Special600!E6</f>
+        <f>Special600!E$6</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="L20" s="8"/>
@@ -6713,19 +7539,19 @@
         <v>37</v>
       </c>
       <c r="H21" s="8">
-        <f>Special600!B3</f>
+        <f>Special600!B$3</f>
         <v>0.1388888888888889</v>
       </c>
       <c r="I21" s="8">
-        <f>Special600!C3</f>
+        <f>Special600!C$3</f>
         <v>0.31944444444444442</v>
       </c>
       <c r="J21" s="8">
-        <f>Special600!D3</f>
+        <f>Special600!D$3</f>
         <v>0.45833333333333331</v>
       </c>
       <c r="K21" s="8">
-        <f>Special600!E3</f>
+        <f>Special600!E$3</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L21" s="8"/>
@@ -6791,7 +7617,7 @@
       </c>
       <c r="G25" s="18">
         <f>M11+M15</f>
-        <v>1.0029347826086956</v>
+        <v>0.95576086956521744</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -6808,7 +7634,7 @@
       </c>
       <c r="G26" s="18">
         <f>M19+M23</f>
-        <v>1.5602368380777472</v>
+        <v>1.4959978573614938</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -6825,7 +7651,7 @@
       </c>
       <c r="G27" s="18">
         <f>M7</f>
-        <v>8.5496012481400658</v>
+        <v>8.3577849729937235</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -6844,18 +7670,32 @@
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
       <c r="O28" s="24"/>
       <c r="W28" s="23"/>
     </row>
     <row r="29" spans="6:23" x14ac:dyDescent="0.35">
-      <c r="F29" s="8"/>
+      <c r="F29" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
       <c r="M29" s="18"/>
       <c r="O29" s="24"/>
       <c r="W29" s="23"/>
@@ -6863,12 +7703,29 @@
     <row r="30" spans="6:23" x14ac:dyDescent="0.35">
       <c r="F30" s="8"/>
       <c r="G30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" t="s">
-        <v>40</v>
+      <c r="H30" s="26">
+        <f>H29/H$2</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="26">
+        <f>I29/I$2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J30" s="26">
+        <f t="shared" ref="J30:L30" si="17">J29/J$2</f>
+        <v>0.3125</v>
+      </c>
+      <c r="K30" s="26">
+        <f t="shared" si="17"/>
+        <v>1.375</v>
+      </c>
+      <c r="L30" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="23">
+        <f>SUM(H30:L30)</f>
+        <v>1.7124999999999999</v>
       </c>
       <c r="N30" s="18"/>
       <c r="O30" s="24"/>
@@ -6912,15 +7769,15 @@
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="J32" s="26">
-        <f t="shared" ref="J32:L32" si="17">J31/J$2</f>
+        <f t="shared" ref="J32:L32" si="18">J31/J$2</f>
         <v>0.4375</v>
       </c>
       <c r="K32" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.125</v>
       </c>
       <c r="L32" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="M32" s="23">
@@ -6969,15 +7826,15 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J34" s="26">
-        <f t="shared" ref="J34:L36" si="18">J33/J$2</f>
+        <f t="shared" ref="J34:L34" si="19">J33/J$2</f>
         <v>0.75</v>
       </c>
       <c r="K34" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.5</v>
       </c>
       <c r="L34" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="M34" s="23">
@@ -7031,19 +7888,19 @@
         <v>96</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:K36" si="19">H33-H35</f>
+        <f t="shared" ref="H36:K36" si="20">H33-H35</f>
         <v>-692</v>
       </c>
       <c r="I36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-78</v>
       </c>
       <c r="J36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-76</v>
       </c>
       <c r="K36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="L36">
@@ -7071,19 +7928,19 @@
         <v>-0.72083333333333333</v>
       </c>
       <c r="I37" s="26">
-        <f t="shared" ref="I37:L37" si="20">I36/I$2</f>
+        <f t="shared" ref="I37:L37" si="21">I36/I$2</f>
         <v>-0.32500000000000001</v>
       </c>
       <c r="J37" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.5833333333333333</v>
       </c>
       <c r="K37" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.375</v>
       </c>
       <c r="L37" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="M37" s="23">
@@ -7123,7 +7980,9 @@
       <c r="V38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="W38" s="18"/>
+      <c r="W38" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="39" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
@@ -7167,6 +8026,9 @@
       <c r="V39" s="25" t="s">
         <v>94</v>
       </c>
+      <c r="W39" s="25" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
@@ -7179,11 +8041,11 @@
       </c>
       <c r="C40" s="1">
         <f>Elements!C2</f>
-        <v>8.8888888888888892E-2</v>
+        <v>8.3720930232558138E-2</v>
       </c>
       <c r="D40" s="1">
         <f>Elements!R2</f>
-        <v>9.8689002184996363E-2</v>
+        <v>9.9225378089265959E-2</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="8" t="s">
@@ -7194,48 +8056,52 @@
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18" t="str">
-        <f t="shared" ref="K40:K50" si="21">A40</f>
+        <f t="shared" ref="K40:K50" si="22">A40</f>
         <v>Fire</v>
       </c>
       <c r="L40" s="18">
         <f>$G$25*$D40</f>
-        <v>9.897863295227842E-2</v>
+        <v>9.4835733645534312E-2</v>
       </c>
       <c r="M40" s="18">
-        <f t="shared" ref="M40:M50" si="22">$G$26*$D40</f>
-        <v>0.15397821672216661</v>
+        <f t="shared" ref="M40:M50" si="23">$G$26*$D40</f>
+        <v>0.14844095301742599</v>
       </c>
       <c r="N40" s="18">
-        <f t="shared" ref="N40:N50" si="23">$M$7*$C40</f>
-        <v>0.75996455539022811</v>
+        <f t="shared" ref="N40:N50" si="24">$M$7*$C40</f>
+        <v>0.69972153262273029</v>
       </c>
       <c r="O40" s="18">
-        <f t="shared" ref="O40:O50" si="24">L40+N40</f>
-        <v>0.85894318834250649</v>
+        <f t="shared" ref="O40:O50" si="25">L40+N40</f>
+        <v>0.79455726626826462</v>
       </c>
       <c r="P40" s="18">
-        <f t="shared" ref="P40:P50" si="25">N40+M40</f>
-        <v>0.91394277211239472</v>
+        <f t="shared" ref="P40:P50" si="26">N40+M40</f>
+        <v>0.84816248564015628</v>
       </c>
       <c r="R40" s="18">
         <f>$M$32/O40</f>
-        <v>36.813649333842115</v>
+        <v>39.796795870792856</v>
       </c>
       <c r="S40" s="19">
         <f>$M$34/O40</f>
-        <v>60.908180397380619</v>
+        <v>65.843796146221507</v>
       </c>
       <c r="T40" s="18">
-        <f t="shared" ref="T40:T50" si="26">$M$32/P40</f>
-        <v>34.598264025052842</v>
+        <f t="shared" ref="T40:T50" si="27">$M$32/P40</f>
+        <v>37.281575015036537</v>
       </c>
       <c r="U40" s="19">
-        <f t="shared" ref="U40:V50" si="27">$M$34/P40</f>
-        <v>57.24282554994906</v>
-      </c>
-      <c r="V40" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="U40:U50" si="28">$M$34/P40</f>
+        <v>61.682363406087582</v>
+      </c>
+      <c r="V40" s="19">
+        <f>$M$37/P40</f>
+        <v>19.743661877115802</v>
+      </c>
+      <c r="W40" s="19">
+        <f>$M$30/P40</f>
+        <v>2.0190706721807898</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
@@ -7249,11 +8115,11 @@
       </c>
       <c r="C41" s="1">
         <f>Elements!C3</f>
-        <v>0.1111111111111111</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="D41" s="1">
         <f>Elements!R3</f>
-        <v>0.12964311726147124</v>
+        <v>0.12947251936554777</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="8" t="s">
@@ -7264,48 +8130,52 @@
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Wind</v>
       </c>
       <c r="L41" s="18">
-        <f t="shared" ref="L41:L50" si="28">$G$25*D41</f>
-        <v>0.13002359162734728</v>
+        <f t="shared" ref="L41:L50" si="29">$G$25*D41</f>
+        <v>0.12374476769361539</v>
       </c>
       <c r="M41" s="18">
-        <f t="shared" si="22"/>
-        <v>0.20227396735458048</v>
+        <f t="shared" si="23"/>
+        <v>0.19369061155805398</v>
       </c>
       <c r="N41" s="18">
-        <f t="shared" si="23"/>
-        <v>0.94995569423778503</v>
+        <f t="shared" si="24"/>
+        <v>0.97183546197601434</v>
       </c>
       <c r="O41" s="18">
-        <f t="shared" si="24"/>
-        <v>1.0799792858651323</v>
+        <f t="shared" si="25"/>
+        <v>1.0955802296696298</v>
       </c>
       <c r="P41" s="18">
-        <f t="shared" si="25"/>
-        <v>1.1522296615923655</v>
+        <f t="shared" si="26"/>
+        <v>1.1655260735340682</v>
       </c>
       <c r="R41" s="18">
-        <f t="shared" ref="R41:R50" si="29">$M$32/O41</f>
-        <v>29.279110948876237</v>
+        <f t="shared" ref="R41:R50" si="30">$M$32/O41</f>
+        <v>28.862179580283719</v>
       </c>
       <c r="S41" s="19">
-        <f t="shared" ref="S41:S50" si="30">$M$34/O41</f>
-        <v>48.442287135866387</v>
+        <f t="shared" ref="S41:S50" si="31">$M$34/O41</f>
+        <v>47.75247421399952</v>
       </c>
       <c r="T41" s="18">
-        <f t="shared" si="26"/>
-        <v>27.44316900298659</v>
+        <f t="shared" si="27"/>
+        <v>27.130095200233253</v>
       </c>
       <c r="U41" s="19">
-        <f t="shared" si="27"/>
-        <v>45.404721307352695</v>
-      </c>
-      <c r="V41" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="28"/>
+        <v>44.886740721324109</v>
+      </c>
+      <c r="V41" s="19">
+        <f t="shared" ref="V41:V50" si="32">$M$37/P41</f>
+        <v>14.367617948311693</v>
+      </c>
+      <c r="W41" s="19">
+        <f t="shared" ref="W41:W50" si="33">$M$30/P41</f>
+        <v>1.4692935995909693</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
@@ -7319,11 +8189,11 @@
       </c>
       <c r="C42" s="1">
         <f>Elements!C4</f>
-        <v>0.11666666666666667</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="D42" s="1">
         <f>Elements!R4</f>
-        <v>0.11361981063364894</v>
+        <v>0.11361121357432681</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="8" t="s">
@@ -7334,48 +8204,52 @@
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Earth</v>
       </c>
       <c r="L42" s="18">
+        <f t="shared" si="29"/>
+        <v>0.10858515227815822</v>
+      </c>
+      <c r="M42" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16996213207943198</v>
+      </c>
+      <c r="N42" s="18">
+        <f t="shared" si="24"/>
+        <v>0.97183546197601434</v>
+      </c>
+      <c r="O42" s="18">
+        <f t="shared" si="25"/>
+        <v>1.0804206142541726</v>
+      </c>
+      <c r="P42" s="18">
+        <f t="shared" si="26"/>
+        <v>1.1417975940554463</v>
+      </c>
+      <c r="R42" s="18">
+        <f t="shared" si="30"/>
+        <v>29.267151067051397</v>
+      </c>
+      <c r="S42" s="19">
+        <f t="shared" si="31"/>
+        <v>48.422499512175165</v>
+      </c>
+      <c r="T42" s="18">
+        <f t="shared" si="27"/>
+        <v>27.693904329419883</v>
+      </c>
+      <c r="U42" s="19">
         <f t="shared" si="28"/>
-        <v>0.11395326007789987</v>
-      </c>
-      <c r="M42" s="18">
-        <f t="shared" si="22"/>
-        <v>0.17727381408603682</v>
-      </c>
-      <c r="N42" s="18">
-        <f t="shared" si="23"/>
-        <v>0.9974534789496744</v>
-      </c>
-      <c r="O42" s="18">
-        <f t="shared" si="24"/>
-        <v>1.1114067390275744</v>
-      </c>
-      <c r="P42" s="18">
-        <f t="shared" si="25"/>
-        <v>1.1747272930357111</v>
-      </c>
-      <c r="R42" s="18">
-        <f t="shared" si="29"/>
-        <v>28.45118013320667</v>
-      </c>
-      <c r="S42" s="19">
-        <f t="shared" si="30"/>
-        <v>47.072475655889171</v>
-      </c>
-      <c r="T42" s="18">
-        <f t="shared" si="26"/>
-        <v>26.917594850136911</v>
-      </c>
-      <c r="U42" s="19">
-        <f t="shared" si="27"/>
-        <v>44.535158906090267</v>
-      </c>
-      <c r="V42" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>45.819562888416925</v>
+      </c>
+      <c r="V42" s="19">
+        <f t="shared" si="32"/>
+        <v>14.666201278157665</v>
+      </c>
+      <c r="W42" s="19">
+        <f t="shared" si="33"/>
+        <v>1.4998279983385916</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
@@ -7389,11 +8263,11 @@
       </c>
       <c r="C43" s="1">
         <f>Elements!C5</f>
-        <v>0.1111111111111111</v>
+        <v>0.12558139534883722</v>
       </c>
       <c r="D43" s="1">
         <f>Elements!R5</f>
-        <v>0.11944646758922069</v>
+        <v>0.1184064920693471</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="8" t="s">
@@ -7404,48 +8278,52 @@
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Water</v>
       </c>
       <c r="L43" s="18">
+        <f t="shared" si="29"/>
+        <v>0.11316829182236621</v>
+      </c>
+      <c r="M43" s="18">
+        <f t="shared" si="23"/>
+        <v>0.17713585843343396</v>
+      </c>
+      <c r="N43" s="18">
+        <f t="shared" si="24"/>
+        <v>1.0495822989340957</v>
+      </c>
+      <c r="O43" s="18">
+        <f t="shared" si="25"/>
+        <v>1.1627505907564619</v>
+      </c>
+      <c r="P43" s="18">
+        <f t="shared" si="26"/>
+        <v>1.2267181573675296</v>
+      </c>
+      <c r="R43" s="18">
+        <f t="shared" si="30"/>
+        <v>27.194854670219055</v>
+      </c>
+      <c r="S43" s="19">
+        <f t="shared" si="31"/>
+        <v>44.993885260148957</v>
+      </c>
+      <c r="T43" s="18">
+        <f t="shared" si="27"/>
+        <v>25.776771252159435</v>
+      </c>
+      <c r="U43" s="19">
         <f t="shared" si="28"/>
-        <v>0.11979701700497165</v>
-      </c>
-      <c r="M43" s="18">
-        <f t="shared" si="22"/>
-        <v>0.18636477891096179</v>
-      </c>
-      <c r="N43" s="18">
-        <f t="shared" si="23"/>
-        <v>0.94995569423778503</v>
-      </c>
-      <c r="O43" s="18">
-        <f t="shared" si="24"/>
-        <v>1.0697527112427567</v>
-      </c>
-      <c r="P43" s="18">
-        <f t="shared" si="25"/>
-        <v>1.1363204731487468</v>
-      </c>
-      <c r="R43" s="18">
-        <f t="shared" si="29"/>
-        <v>29.559012097850793</v>
-      </c>
-      <c r="S43" s="19">
-        <f t="shared" si="30"/>
-        <v>48.90538356840355</v>
-      </c>
-      <c r="T43" s="18">
-        <f t="shared" si="26"/>
-        <v>27.827390318606092</v>
-      </c>
-      <c r="U43" s="19">
-        <f t="shared" si="27"/>
-        <v>46.040415448730805</v>
-      </c>
-      <c r="V43" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>42.647666338399503</v>
+      </c>
+      <c r="V43" s="19">
+        <f t="shared" si="32"/>
+        <v>13.650921552566711</v>
+      </c>
+      <c r="W43" s="19">
+        <f t="shared" si="33"/>
+        <v>1.3960011839026918</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
@@ -7459,11 +8337,11 @@
       </c>
       <c r="C44" s="1">
         <f>Elements!C6</f>
-        <v>7.2222222222222215E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="D44" s="1">
         <f>Elements!R6</f>
-        <v>0.10378732702112163</v>
+        <v>0.10438952416082627</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="8" t="s">
@@ -7474,48 +8352,52 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Plant</v>
       </c>
       <c r="L44" s="18">
+        <f t="shared" si="29"/>
+        <v>9.9771422385450587E-2</v>
+      </c>
+      <c r="M44" s="18">
+        <f t="shared" si="23"/>
+        <v>0.15616650447558197</v>
+      </c>
+      <c r="N44" s="18">
+        <f t="shared" si="24"/>
+        <v>0.58310127718560856</v>
+      </c>
+      <c r="O44" s="18">
+        <f t="shared" si="25"/>
+        <v>0.68287269957105912</v>
+      </c>
+      <c r="P44" s="18">
+        <f t="shared" si="26"/>
+        <v>0.73926778166119056</v>
+      </c>
+      <c r="R44" s="18">
+        <f t="shared" si="30"/>
+        <v>46.305604768203061</v>
+      </c>
+      <c r="S44" s="19">
+        <f t="shared" si="31"/>
+        <v>76.612620038154915</v>
+      </c>
+      <c r="T44" s="18">
+        <f t="shared" si="27"/>
+        <v>42.773179242681088</v>
+      </c>
+      <c r="U44" s="19">
         <f t="shared" si="28"/>
-        <v>0.10409192026346623</v>
-      </c>
-      <c r="M44" s="18">
-        <f t="shared" si="22"/>
-        <v>0.16193281094397594</v>
-      </c>
-      <c r="N44" s="18">
-        <f t="shared" si="23"/>
-        <v>0.61747120125456023</v>
-      </c>
-      <c r="O44" s="18">
-        <f t="shared" si="24"/>
-        <v>0.72156312151802648</v>
-      </c>
-      <c r="P44" s="18">
-        <f t="shared" si="25"/>
-        <v>0.77940401219853617</v>
-      </c>
-      <c r="R44" s="18">
-        <f t="shared" si="29"/>
-        <v>43.822684932690763</v>
-      </c>
-      <c r="S44" s="19">
-        <f t="shared" si="30"/>
-        <v>72.504629333886569</v>
-      </c>
-      <c r="T44" s="18">
-        <f t="shared" si="26"/>
-        <v>40.570529325525996</v>
-      </c>
-      <c r="U44" s="19">
-        <f t="shared" si="27"/>
-        <v>67.12393809610019</v>
-      </c>
-      <c r="V44" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>70.768222238912074</v>
+      </c>
+      <c r="V44" s="19">
+        <f t="shared" si="32"/>
+        <v>22.651918220626605</v>
+      </c>
+      <c r="W44" s="19">
+        <f t="shared" si="33"/>
+        <v>2.3164813109424069</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
@@ -7529,11 +8411,11 @@
       </c>
       <c r="C45" s="1">
         <f>Elements!C7</f>
-        <v>9.4444444444444442E-2</v>
+        <v>7.441860465116279E-2</v>
       </c>
       <c r="D45" s="1">
         <f>Elements!R7</f>
-        <v>9.6868171886380194E-2</v>
+        <v>9.8487642936185907E-2</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="8" t="s">
@@ -7544,48 +8426,52 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Metal</v>
       </c>
       <c r="L45" s="18">
+        <f t="shared" si="29"/>
+        <v>9.4130635254117689E-2</v>
+      </c>
+      <c r="M45" s="18">
+        <f t="shared" si="23"/>
+        <v>0.14733730280911797</v>
+      </c>
+      <c r="N45" s="18">
+        <f t="shared" si="24"/>
+        <v>0.62197469566464914</v>
+      </c>
+      <c r="O45" s="18">
+        <f t="shared" si="25"/>
+        <v>0.71610533091876682</v>
+      </c>
+      <c r="P45" s="18">
+        <f t="shared" si="26"/>
+        <v>0.76931199847376708</v>
+      </c>
+      <c r="R45" s="18">
+        <f t="shared" si="30"/>
+        <v>44.156679147694156</v>
+      </c>
+      <c r="S45" s="19">
+        <f t="shared" si="31"/>
+        <v>73.05722274060453</v>
+      </c>
+      <c r="T45" s="18">
+        <f t="shared" si="27"/>
+        <v>41.102742965228273</v>
+      </c>
+      <c r="U45" s="19">
         <f t="shared" si="28"/>
-        <v>9.7152458912568476E-2</v>
-      </c>
-      <c r="M45" s="18">
-        <f t="shared" si="22"/>
-        <v>0.15113729021437755</v>
-      </c>
-      <c r="N45" s="18">
-        <f t="shared" si="23"/>
-        <v>0.80746234010211726</v>
-      </c>
-      <c r="O45" s="18">
-        <f t="shared" si="24"/>
-        <v>0.90461479901468578</v>
-      </c>
-      <c r="P45" s="18">
-        <f t="shared" si="25"/>
-        <v>0.95859963031649476</v>
-      </c>
-      <c r="R45" s="18">
-        <f t="shared" si="29"/>
-        <v>34.955025462522855</v>
-      </c>
-      <c r="S45" s="19">
-        <f t="shared" si="30"/>
-        <v>57.833087324738031</v>
-      </c>
-      <c r="T45" s="18">
-        <f t="shared" si="26"/>
-        <v>32.986486050378808</v>
-      </c>
-      <c r="U45" s="19">
-        <f t="shared" si="27"/>
-        <v>54.576138997042591</v>
-      </c>
-      <c r="V45" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>68.00448552792281</v>
+      </c>
+      <c r="V45" s="19">
+        <f t="shared" si="32"/>
+        <v>21.767284751252131</v>
+      </c>
+      <c r="W45" s="19">
+        <f t="shared" si="33"/>
+        <v>2.2260149372392699</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
@@ -7599,11 +8485,11 @@
       </c>
       <c r="C46" s="1">
         <f>Elements!C8</f>
-        <v>0.1</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="D46" s="1">
         <f>Elements!R8</f>
-        <v>9.9053168244719589E-2</v>
+        <v>9.9594245665805978E-2</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="8" t="s">
@@ -7614,48 +8500,52 @@
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Energy</v>
       </c>
       <c r="L46" s="18">
+        <f t="shared" si="29"/>
+        <v>9.5188282841242616E-2</v>
+      </c>
+      <c r="M46" s="18">
+        <f t="shared" si="23"/>
+        <v>0.14899277812157999</v>
+      </c>
+      <c r="N46" s="18">
+        <f t="shared" si="24"/>
+        <v>0.77746836958081145</v>
+      </c>
+      <c r="O46" s="18">
+        <f t="shared" si="25"/>
+        <v>0.87265665242205404</v>
+      </c>
+      <c r="P46" s="18">
+        <f t="shared" si="26"/>
+        <v>0.92646114770239141</v>
+      </c>
+      <c r="R46" s="18">
+        <f t="shared" si="30"/>
+        <v>36.235136975773777</v>
+      </c>
+      <c r="S46" s="19">
+        <f t="shared" si="31"/>
+        <v>59.951031739071745</v>
+      </c>
+      <c r="T46" s="18">
+        <f t="shared" si="27"/>
+        <v>34.130771065524428</v>
+      </c>
+      <c r="U46" s="19">
         <f t="shared" si="28"/>
-        <v>9.9343867760220389E-2</v>
-      </c>
-      <c r="M46" s="18">
-        <f t="shared" si="22"/>
-        <v>0.15454640202372441</v>
-      </c>
-      <c r="N46" s="18">
-        <f t="shared" si="23"/>
-        <v>0.85496012481400663</v>
-      </c>
-      <c r="O46" s="18">
-        <f t="shared" si="24"/>
-        <v>0.95430399257422704</v>
-      </c>
-      <c r="P46" s="18">
-        <f t="shared" si="25"/>
-        <v>1.009506526837731</v>
-      </c>
-      <c r="R46" s="18">
-        <f t="shared" si="29"/>
-        <v>33.134969128690742</v>
-      </c>
-      <c r="S46" s="19">
-        <f t="shared" si="30"/>
-        <v>54.821804240326912</v>
-      </c>
-      <c r="T46" s="18">
-        <f t="shared" si="26"/>
-        <v>31.323059824472136</v>
-      </c>
-      <c r="U46" s="19">
-        <f t="shared" si="27"/>
-        <v>51.824000415874565</v>
-      </c>
-      <c r="V46" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>56.469358479210001</v>
+      </c>
+      <c r="V46" s="19">
+        <f t="shared" si="32"/>
+        <v>18.075051905698071</v>
+      </c>
+      <c r="W46" s="19">
+        <f t="shared" si="33"/>
+        <v>1.8484315335262274</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
@@ -7669,11 +8559,11 @@
       </c>
       <c r="C47" s="1">
         <f>Elements!C9</f>
-        <v>8.8888888888888892E-2</v>
+        <v>0.10697674418604651</v>
       </c>
       <c r="D47" s="1">
         <f>Elements!R9</f>
-        <v>9.0313182811361983E-2</v>
+        <v>8.8897085946145329E-2</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="8" t="s">
@@ -7684,48 +8574,52 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Void</v>
       </c>
       <c r="L47" s="18">
+        <f t="shared" si="29"/>
+        <v>8.4964356165701735E-2</v>
+      </c>
+      <c r="M47" s="18">
+        <f t="shared" si="23"/>
+        <v>0.13298985010111397</v>
+      </c>
+      <c r="N47" s="18">
+        <f t="shared" si="24"/>
+        <v>0.89408862501793318</v>
+      </c>
+      <c r="O47" s="18">
+        <f t="shared" si="25"/>
+        <v>0.97905298118363493</v>
+      </c>
+      <c r="P47" s="18">
+        <f t="shared" si="26"/>
+        <v>1.0270784751190472</v>
+      </c>
+      <c r="R47" s="18">
+        <f t="shared" si="30"/>
+        <v>32.297366885196595</v>
+      </c>
+      <c r="S47" s="19">
+        <f t="shared" si="31"/>
+        <v>53.435991383651128</v>
+      </c>
+      <c r="T47" s="18">
+        <f t="shared" si="27"/>
+        <v>30.787163882164126</v>
+      </c>
+      <c r="U47" s="19">
         <f t="shared" si="28"/>
-        <v>9.057823236961271E-2</v>
-      </c>
-      <c r="M47" s="18">
-        <f t="shared" si="22"/>
-        <v>0.14090995478633697</v>
-      </c>
-      <c r="N47" s="18">
-        <f t="shared" si="23"/>
-        <v>0.75996455539022811</v>
-      </c>
-      <c r="O47" s="18">
-        <f t="shared" si="24"/>
-        <v>0.85054278775984082</v>
-      </c>
-      <c r="P47" s="18">
-        <f t="shared" si="25"/>
-        <v>0.90087451017656506</v>
-      </c>
-      <c r="R47" s="18">
-        <f t="shared" si="29"/>
-        <v>37.177239979444501</v>
-      </c>
-      <c r="S47" s="19">
-        <f t="shared" si="30"/>
-        <v>61.509741096574665</v>
-      </c>
-      <c r="T47" s="18">
-        <f t="shared" si="26"/>
-        <v>35.100153213499041</v>
-      </c>
-      <c r="U47" s="19">
-        <f t="shared" si="27"/>
-        <v>58.073201179166411</v>
-      </c>
-      <c r="V47" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>50.937360614633377</v>
+      </c>
+      <c r="V47" s="19">
+        <f t="shared" si="32"/>
+        <v>16.304336756149375</v>
+      </c>
+      <c r="W47" s="19">
+        <f t="shared" si="33"/>
+        <v>1.6673506859361515</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
@@ -7739,11 +8633,11 @@
       </c>
       <c r="C48" s="1">
         <f>Elements!C10</f>
-        <v>7.7777777777777779E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="D48" s="1">
         <f>Elements!R10</f>
-        <v>5.4989075018208301E-2</v>
+        <v>5.5330136481003322E-2</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="8" t="s">
@@ -7754,51 +8648,55 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Light</v>
       </c>
       <c r="L48" s="18">
+        <f t="shared" si="29"/>
+        <v>5.2882379356245894E-2</v>
+      </c>
+      <c r="M48" s="18">
+        <f t="shared" si="23"/>
+        <v>8.2773765623099987E-2</v>
+      </c>
+      <c r="N48" s="18">
+        <f t="shared" si="24"/>
+        <v>0.58310127718560856</v>
+      </c>
+      <c r="O48" s="18">
+        <f t="shared" si="25"/>
+        <v>0.6359836565418544</v>
+      </c>
+      <c r="P48" s="18">
+        <f t="shared" si="26"/>
+        <v>0.66587504280870857</v>
+      </c>
+      <c r="R48" s="18">
+        <f t="shared" si="30"/>
+        <v>49.719569061366833</v>
+      </c>
+      <c r="S48" s="19">
+        <f t="shared" si="31"/>
+        <v>82.261023736265898</v>
+      </c>
+      <c r="T48" s="18">
+        <f t="shared" si="27"/>
+        <v>47.487638521417466</v>
+      </c>
+      <c r="U48" s="19">
         <f t="shared" si="28"/>
-        <v>5.5150455999239997E-2</v>
-      </c>
-      <c r="M48" s="18">
-        <f t="shared" si="22"/>
-        <v>8.5795980535229355E-2</v>
-      </c>
-      <c r="N48" s="18">
-        <f t="shared" si="23"/>
-        <v>0.6649689859664496</v>
-      </c>
-      <c r="O48" s="18">
-        <f t="shared" si="24"/>
-        <v>0.72011944196568956</v>
-      </c>
-      <c r="P48" s="18">
-        <f t="shared" si="25"/>
-        <v>0.7507649665016789</v>
-      </c>
-      <c r="R48" s="18">
-        <f t="shared" si="29"/>
-        <v>43.910539683554227</v>
-      </c>
-      <c r="S48" s="19">
-        <f t="shared" si="30"/>
-        <v>72.649985013401874</v>
-      </c>
-      <c r="T48" s="18">
-        <f t="shared" si="26"/>
-        <v>42.118152476768003</v>
-      </c>
-      <c r="U48" s="19">
-        <f t="shared" si="27"/>
-        <v>69.684480497865195</v>
-      </c>
-      <c r="V48" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+        <v>78.568294804970037</v>
+      </c>
+      <c r="V48" s="19">
+        <f t="shared" si="32"/>
+        <v>25.148612362310818</v>
+      </c>
+      <c r="W48" s="19">
+        <f t="shared" si="33"/>
+        <v>2.5718038519307651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>Elements!A11</f>
         <v>Shadow</v>
@@ -7809,11 +8707,11 @@
       </c>
       <c r="C49" s="1">
         <f>Elements!C11</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="D49" s="1">
         <f>Elements!R11</f>
-        <v>6.2272396212672977E-2</v>
+        <v>6.196975285872372E-2</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="8" t="s">
@@ -7824,51 +8722,55 @@
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Shadow</v>
       </c>
       <c r="L49" s="18">
+        <f t="shared" si="29"/>
+        <v>5.92282648789954E-2</v>
+      </c>
+      <c r="M49" s="18">
+        <f t="shared" si="23"/>
+        <v>9.2706617497871999E-2</v>
+      </c>
+      <c r="N49" s="18">
+        <f t="shared" si="24"/>
+        <v>0.58310127718560856</v>
+      </c>
+      <c r="O49" s="18">
+        <f t="shared" si="25"/>
+        <v>0.64232954206460391</v>
+      </c>
+      <c r="P49" s="18">
+        <f t="shared" si="26"/>
+        <v>0.67580789468348057</v>
+      </c>
+      <c r="R49" s="18">
+        <f t="shared" si="30"/>
+        <v>49.228365290028947</v>
+      </c>
+      <c r="S49" s="19">
+        <f t="shared" si="31"/>
+        <v>81.44832712895024</v>
+      </c>
+      <c r="T49" s="18">
+        <f t="shared" si="27"/>
+        <v>46.789677335958281</v>
+      </c>
+      <c r="U49" s="19">
         <f t="shared" si="28"/>
-        <v>6.245515215807973E-2</v>
-      </c>
-      <c r="M49" s="18">
-        <f t="shared" si="22"/>
-        <v>9.7159686566385559E-2</v>
-      </c>
-      <c r="N49" s="18">
-        <f t="shared" si="23"/>
-        <v>0.56997341654267109</v>
-      </c>
-      <c r="O49" s="18">
-        <f t="shared" si="24"/>
-        <v>0.63242856870075081</v>
-      </c>
-      <c r="P49" s="18">
-        <f t="shared" si="25"/>
-        <v>0.6671331031090566</v>
-      </c>
-      <c r="R49" s="18">
-        <f t="shared" si="29"/>
-        <v>49.999059021471105</v>
-      </c>
-      <c r="S49" s="19">
-        <f t="shared" si="30"/>
-        <v>82.723439856844266</v>
-      </c>
-      <c r="T49" s="18">
-        <f t="shared" si="26"/>
-        <v>47.39808770689087</v>
-      </c>
-      <c r="U49" s="19">
-        <f t="shared" si="27"/>
-        <v>78.420132988235821</v>
-      </c>
-      <c r="V49" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+        <v>77.413518069612877</v>
+      </c>
+      <c r="V49" s="19">
+        <f t="shared" si="32"/>
+        <v>24.778984479274786</v>
+      </c>
+      <c r="W49" s="19">
+        <f t="shared" si="33"/>
+        <v>2.5340041356013776</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>Elements!A12</f>
         <v>Legend</v>
@@ -7879,11 +8781,11 @@
       </c>
       <c r="C50" s="1">
         <f>Elements!C12</f>
-        <v>7.2222222222222215E-2</v>
+        <v>7.441860465116279E-2</v>
       </c>
       <c r="D50" s="1">
         <f>Elements!R12</f>
-        <v>3.1318281136198105E-2</v>
+        <v>3.0616008852821838E-2</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="8" t="s">
@@ -7894,72 +8796,76 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Legend</v>
       </c>
       <c r="L50" s="18">
+        <f t="shared" si="29"/>
+        <v>2.9261583243789396E-2</v>
+      </c>
+      <c r="M50" s="18">
+        <f t="shared" si="23"/>
+        <v>4.5801483644781996E-2</v>
+      </c>
+      <c r="N50" s="18">
+        <f t="shared" si="24"/>
+        <v>0.62197469566464914</v>
+      </c>
+      <c r="O50" s="18">
+        <f t="shared" si="25"/>
+        <v>0.65123627890843849</v>
+      </c>
+      <c r="P50" s="18">
+        <f t="shared" si="26"/>
+        <v>0.66777617930943112</v>
+      </c>
+      <c r="R50" s="18">
+        <f t="shared" si="30"/>
+        <v>48.555085699976964</v>
+      </c>
+      <c r="S50" s="19">
+        <f t="shared" si="31"/>
+        <v>80.334386091568163</v>
+      </c>
+      <c r="T50" s="18">
+        <f t="shared" si="27"/>
+        <v>47.352442799072975</v>
+      </c>
+      <c r="U50" s="19">
         <f t="shared" si="28"/>
-        <v>3.1410193483010856E-2</v>
-      </c>
-      <c r="M50" s="18">
-        <f t="shared" si="22"/>
-        <v>4.8863935933971689E-2</v>
-      </c>
-      <c r="N50" s="18">
-        <f t="shared" si="23"/>
-        <v>0.61747120125456023</v>
-      </c>
-      <c r="O50" s="18">
-        <f t="shared" si="24"/>
-        <v>0.64888139473757112</v>
-      </c>
-      <c r="P50" s="18">
-        <f t="shared" si="25"/>
-        <v>0.66633513718853188</v>
-      </c>
-      <c r="R50" s="18">
-        <f t="shared" si="29"/>
-        <v>48.731299109172078</v>
-      </c>
-      <c r="S50" s="19">
-        <f t="shared" si="30"/>
-        <v>80.62593116547167</v>
-      </c>
-      <c r="T50" s="18">
-        <f t="shared" si="26"/>
-        <v>47.454849021996843</v>
-      </c>
-      <c r="U50" s="19">
-        <f t="shared" si="27"/>
-        <v>78.514044580338947</v>
-      </c>
-      <c r="V50" s="19" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+        <v>78.344613491258428</v>
+      </c>
+      <c r="V50" s="19">
+        <f t="shared" si="32"/>
+        <v>25.077015102052219</v>
+      </c>
+      <c r="W50" s="19">
+        <f t="shared" si="33"/>
+        <v>2.5644820121780194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G51"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -7967,7 +8873,7 @@
       <c r="G55"/>
       <c r="K55" s="18"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -7975,7 +8881,7 @@
       <c r="G56"/>
       <c r="K56" s="18"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -7983,7 +8889,7 @@
       <c r="G57"/>
       <c r="K57" s="18"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -7991,27 +8897,27 @@
       <c r="G58"/>
       <c r="K58" s="18"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G59"/>
       <c r="K59" s="18"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G60"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G61"/>
       <c r="K61" s="18"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G62"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G63"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G64"/>
       <c r="K64" s="18"/>
     </row>
@@ -8033,7 +8939,7 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8273,15 +9179,15 @@
         <v>37</v>
       </c>
       <c r="H9" s="8">
-        <f>'Gifs, Normal'!B16</f>
+        <f>'Gifts, Normal'!B16</f>
         <v>0.38260869565217392</v>
       </c>
       <c r="I9" s="8">
-        <f>'Gifs, Normal'!C16</f>
+        <f>'Gifts, Normal'!C16</f>
         <v>0.24347826086956523</v>
       </c>
       <c r="J9" s="8">
-        <f>'Gifs, Normal'!D16</f>
+        <f>'Gifts, Normal'!D16</f>
         <v>0.37391304347826088</v>
       </c>
       <c r="K9" s="8"/>
@@ -8825,11 +9731,11 @@
       </c>
       <c r="C40" s="1">
         <f>Elements!C2</f>
-        <v>8.8888888888888892E-2</v>
+        <v>8.3720930232558138E-2</v>
       </c>
       <c r="D40" s="1">
         <f>Elements!R2</f>
-        <v>9.8689002184996363E-2</v>
+        <v>9.9225378089265959E-2</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="8" t="s">
@@ -8845,7 +9751,7 @@
       </c>
       <c r="L40" s="18">
         <f>$G$25*$D40</f>
-        <v>9.897863295227842E-2</v>
+        <v>9.951658300322358E-2</v>
       </c>
       <c r="M40" s="18">
         <f t="shared" ref="M40:M50" si="6">$G$26*$D40</f>
@@ -8853,23 +9759,23 @@
       </c>
       <c r="N40" s="18">
         <f t="shared" ref="N40:N50" si="7">$M$7*$C40</f>
-        <v>0.41831699346405232</v>
+        <v>0.39399623803009576</v>
       </c>
       <c r="O40" s="18">
         <f t="shared" ref="O40:O50" si="8">L40+N40</f>
-        <v>0.51729562641633076</v>
+        <v>0.49351282103331934</v>
       </c>
       <c r="P40" s="18">
         <f t="shared" ref="P40:P50" si="9">N40+M40</f>
-        <v>0.41831699346405232</v>
+        <v>0.39399623803009576</v>
       </c>
       <c r="R40" s="18">
         <f>$M$32/O40</f>
-        <v>61.127200228606227</v>
+        <v>64.072972343708301</v>
       </c>
       <c r="S40" s="19">
         <f>$M$34/O40</f>
-        <v>101.13494875087359</v>
+        <v>106.00872852122826</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
@@ -8883,11 +9789,11 @@
       </c>
       <c r="C41" s="1">
         <f>Elements!C3</f>
-        <v>0.1111111111111111</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="D41" s="1">
         <f>Elements!R3</f>
-        <v>0.12964311726147124</v>
+        <v>0.12947251936554777</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="8" t="s">
@@ -8903,7 +9809,7 @@
       </c>
       <c r="L41" s="18">
         <f t="shared" ref="L41:L50" si="10">$G$25*D41</f>
-        <v>0.13002359162734728</v>
+        <v>0.12985249306368579</v>
       </c>
       <c r="M41" s="18">
         <f t="shared" si="6"/>
@@ -8911,23 +9817,23 @@
       </c>
       <c r="N41" s="18">
         <f t="shared" si="7"/>
-        <v>0.52289624183006533</v>
+        <v>0.54721699726402184</v>
       </c>
       <c r="O41" s="18">
         <f t="shared" si="8"/>
-        <v>0.65291983345741267</v>
+        <v>0.67706949032770769</v>
       </c>
       <c r="P41" s="18">
         <f t="shared" si="9"/>
-        <v>0.52289624183006533</v>
+        <v>0.54721699726402184</v>
       </c>
       <c r="R41" s="18">
         <f t="shared" ref="R41:R50" si="11">$M$32/O41</f>
-        <v>48.429886355100031</v>
+        <v>46.702493296557442</v>
       </c>
       <c r="S41" s="19">
         <f t="shared" ref="S41:S50" si="12">$M$34/O41</f>
-        <v>80.127243783718001</v>
+        <v>77.2692720821683</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
@@ -8941,11 +9847,11 @@
       </c>
       <c r="C42" s="1">
         <f>Elements!C4</f>
-        <v>0.11666666666666667</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="D42" s="1">
         <f>Elements!R4</f>
-        <v>0.11361981063364894</v>
+        <v>0.11361121357432681</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="8" t="s">
@@ -8961,7 +9867,7 @@
       </c>
       <c r="L42" s="18">
         <f t="shared" si="10"/>
-        <v>0.11395326007789987</v>
+        <v>0.11394463778807755</v>
       </c>
       <c r="M42" s="18">
         <f t="shared" si="6"/>
@@ -8969,23 +9875,23 @@
       </c>
       <c r="N42" s="18">
         <f t="shared" si="7"/>
-        <v>0.54904105392156866</v>
+        <v>0.54721699726402184</v>
       </c>
       <c r="O42" s="18">
         <f t="shared" si="8"/>
-        <v>0.66299431399946851</v>
+        <v>0.66116163505209935</v>
       </c>
       <c r="P42" s="18">
         <f t="shared" si="9"/>
-        <v>0.54904105392156866</v>
+        <v>0.54721699726402184</v>
       </c>
       <c r="R42" s="18">
         <f t="shared" si="11"/>
-        <v>47.693973636942353</v>
+        <v>47.826176923955394</v>
       </c>
       <c r="S42" s="19">
         <f t="shared" si="12"/>
-        <v>78.909676240011621</v>
+        <v>79.128406569664506</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
@@ -8999,11 +9905,11 @@
       </c>
       <c r="C43" s="1">
         <f>Elements!C5</f>
-        <v>0.1111111111111111</v>
+        <v>0.12558139534883722</v>
       </c>
       <c r="D43" s="1">
         <f>Elements!R5</f>
-        <v>0.11944646758922069</v>
+        <v>0.1184064920693471</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="8" t="s">
@@ -9019,7 +9925,7 @@
       </c>
       <c r="L43" s="18">
         <f t="shared" si="10"/>
-        <v>0.11979701700497165</v>
+        <v>0.11875398938302888</v>
       </c>
       <c r="M43" s="18">
         <f t="shared" si="6"/>
@@ -9027,23 +9933,23 @@
       </c>
       <c r="N43" s="18">
         <f t="shared" si="7"/>
-        <v>0.52289624183006533</v>
+        <v>0.59099435704514369</v>
       </c>
       <c r="O43" s="18">
         <f t="shared" si="8"/>
-        <v>0.64269325883503703</v>
+        <v>0.70974834642817253</v>
       </c>
       <c r="P43" s="18">
         <f t="shared" si="9"/>
-        <v>0.52289624183006533</v>
+        <v>0.59099435704514369</v>
       </c>
       <c r="R43" s="18">
         <f t="shared" si="11"/>
-        <v>49.200505682368757</v>
+        <v>44.552176123362628</v>
       </c>
       <c r="S43" s="19">
         <f t="shared" si="12"/>
-        <v>81.402233409911986</v>
+        <v>73.711572460790762</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
@@ -9057,11 +9963,11 @@
       </c>
       <c r="C44" s="1">
         <f>Elements!C6</f>
-        <v>7.2222222222222215E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="D44" s="1">
         <f>Elements!R6</f>
-        <v>0.10378732702112163</v>
+        <v>0.10438952416082627</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="8" t="s">
@@ -9077,7 +9983,7 @@
       </c>
       <c r="L44" s="18">
         <f t="shared" si="10"/>
-        <v>0.10409192026346623</v>
+        <v>0.10469588472086347</v>
       </c>
       <c r="M44" s="18">
         <f t="shared" si="6"/>
@@ -9085,23 +9991,23 @@
       </c>
       <c r="N44" s="18">
         <f t="shared" si="7"/>
-        <v>0.33988255718954247</v>
+        <v>0.32833019835841315</v>
       </c>
       <c r="O44" s="18">
         <f t="shared" si="8"/>
-        <v>0.44397447745300866</v>
+        <v>0.43302608307927659</v>
       </c>
       <c r="P44" s="18">
         <f t="shared" si="9"/>
-        <v>0.33988255718954247</v>
+        <v>0.32833019835841315</v>
       </c>
       <c r="R44" s="18">
         <f t="shared" si="11"/>
-        <v>71.222187173315973</v>
+        <v>73.022929954878322</v>
       </c>
       <c r="S44" s="19">
         <f t="shared" si="12"/>
-        <v>117.83710398578933</v>
+        <v>120.81643279924261</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
@@ -9115,11 +10021,11 @@
       </c>
       <c r="C45" s="1">
         <f>Elements!C7</f>
-        <v>9.4444444444444442E-2</v>
+        <v>7.441860465116279E-2</v>
       </c>
       <c r="D45" s="1">
         <f>Elements!R7</f>
-        <v>9.6868171886380194E-2</v>
+        <v>9.8487642936185907E-2</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="8" t="s">
@@ -9135,7 +10041,7 @@
       </c>
       <c r="L45" s="18">
         <f t="shared" si="10"/>
-        <v>9.7152458912568476E-2</v>
+        <v>9.8776682757846443E-2</v>
       </c>
       <c r="M45" s="18">
         <f t="shared" si="6"/>
@@ -9143,23 +10049,23 @@
       </c>
       <c r="N45" s="18">
         <f t="shared" si="7"/>
-        <v>0.44446180555555553</v>
+        <v>0.35021887824897402</v>
       </c>
       <c r="O45" s="18">
         <f t="shared" si="8"/>
-        <v>0.541614264468124</v>
+        <v>0.44899556100682048</v>
       </c>
       <c r="P45" s="18">
         <f t="shared" si="9"/>
-        <v>0.44446180555555553</v>
+        <v>0.35021887824897402</v>
       </c>
       <c r="R45" s="18">
         <f t="shared" si="11"/>
-        <v>58.382571154003159</v>
+        <v>70.425714816483449</v>
       </c>
       <c r="S45" s="19">
         <f t="shared" si="12"/>
-        <v>96.593960127772249</v>
+        <v>116.51934052388538</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
@@ -9173,11 +10079,11 @@
       </c>
       <c r="C46" s="1">
         <f>Elements!C8</f>
-        <v>0.1</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="D46" s="1">
         <f>Elements!R8</f>
-        <v>9.9053168244719589E-2</v>
+        <v>9.9594245665805978E-2</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="8" t="s">
@@ -9193,7 +10099,7 @@
       </c>
       <c r="L46" s="18">
         <f t="shared" si="10"/>
-        <v>9.9343867760220389E-2</v>
+        <v>9.9886533125912141E-2</v>
       </c>
       <c r="M46" s="18">
         <f t="shared" si="6"/>
@@ -9201,23 +10107,23 @@
       </c>
       <c r="N46" s="18">
         <f t="shared" si="7"/>
-        <v>0.47060661764705886</v>
+        <v>0.4377735978112175</v>
       </c>
       <c r="O46" s="18">
         <f t="shared" si="8"/>
-        <v>0.56995048540727922</v>
+        <v>0.53766013093712961</v>
       </c>
       <c r="P46" s="18">
         <f t="shared" si="9"/>
-        <v>0.47060661764705886</v>
+        <v>0.4377735978112175</v>
       </c>
       <c r="R46" s="18">
         <f t="shared" si="11"/>
-        <v>55.479965616201724</v>
+        <v>58.811936228596544</v>
       </c>
       <c r="S46" s="19">
         <f t="shared" si="12"/>
-        <v>91.791599456717464</v>
+        <v>97.30434461539835</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
@@ -9231,11 +10137,11 @@
       </c>
       <c r="C47" s="1">
         <f>Elements!C9</f>
-        <v>8.8888888888888892E-2</v>
+        <v>0.10697674418604651</v>
       </c>
       <c r="D47" s="1">
         <f>Elements!R9</f>
-        <v>9.0313182811361983E-2</v>
+        <v>8.8897085946145329E-2</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="8" t="s">
@@ -9251,7 +10157,7 @@
       </c>
       <c r="L47" s="18">
         <f t="shared" si="10"/>
-        <v>9.057823236961271E-2</v>
+        <v>8.9157979567943801E-2</v>
       </c>
       <c r="M47" s="18">
         <f t="shared" si="6"/>
@@ -9259,23 +10165,23 @@
       </c>
       <c r="N47" s="18">
         <f t="shared" si="7"/>
-        <v>0.41831699346405232</v>
+        <v>0.5034396374829001</v>
       </c>
       <c r="O47" s="18">
         <f t="shared" si="8"/>
-        <v>0.50889522583366498</v>
+        <v>0.59259761705084391</v>
       </c>
       <c r="P47" s="18">
         <f t="shared" si="9"/>
-        <v>0.41831699346405232</v>
+        <v>0.5034396374829001</v>
       </c>
       <c r="R47" s="18">
         <f t="shared" si="11"/>
-        <v>62.136234981439507</v>
+        <v>53.359703825167962</v>
       </c>
       <c r="S47" s="19">
         <f t="shared" si="12"/>
-        <v>102.80439668295618</v>
+        <v>88.283626463145197</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
@@ -9289,11 +10195,11 @@
       </c>
       <c r="C48" s="1">
         <f>Elements!C10</f>
-        <v>7.7777777777777779E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="D48" s="1">
         <f>Elements!R10</f>
-        <v>5.4989075018208301E-2</v>
+        <v>5.5330136481003322E-2</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="8" t="s">
@@ -9309,7 +10215,7 @@
       </c>
       <c r="L48" s="18">
         <f t="shared" si="10"/>
-        <v>5.5150455999239997E-2</v>
+        <v>5.5492518403284528E-2</v>
       </c>
       <c r="M48" s="18">
         <f t="shared" si="6"/>
@@ -9317,23 +10223,23 @@
       </c>
       <c r="N48" s="18">
         <f t="shared" si="7"/>
-        <v>0.36602736928104573</v>
+        <v>0.32833019835841315</v>
       </c>
       <c r="O48" s="18">
         <f t="shared" si="8"/>
-        <v>0.42117782528028574</v>
+        <v>0.38382271676169766</v>
       </c>
       <c r="P48" s="18">
         <f t="shared" si="9"/>
-        <v>0.36602736928104573</v>
+        <v>0.32833019835841315</v>
       </c>
       <c r="R48" s="18">
         <f t="shared" si="11"/>
-        <v>75.077156097404412</v>
+        <v>82.383954759419893</v>
       </c>
       <c r="S48" s="19">
         <f t="shared" si="12"/>
-        <v>124.21514981670967</v>
+        <v>136.30424772160706</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
@@ -9347,11 +10253,11 @@
       </c>
       <c r="C49" s="1">
         <f>Elements!C11</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="D49" s="1">
         <f>Elements!R11</f>
-        <v>6.2272396212672977E-2</v>
+        <v>6.196975285872372E-2</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="8" t="s">
@@ -9367,7 +10273,7 @@
       </c>
       <c r="L49" s="18">
         <f t="shared" si="10"/>
-        <v>6.245515215807973E-2</v>
+        <v>6.2151620611678671E-2</v>
       </c>
       <c r="M49" s="18">
         <f t="shared" si="6"/>
@@ -9375,23 +10281,23 @@
       </c>
       <c r="N49" s="18">
         <f t="shared" si="7"/>
-        <v>0.3137377450980392</v>
+        <v>0.32833019835841315</v>
       </c>
       <c r="O49" s="18">
         <f t="shared" si="8"/>
-        <v>0.37619289725611893</v>
+        <v>0.39048181897009182</v>
       </c>
       <c r="P49" s="18">
         <f t="shared" si="9"/>
-        <v>0.3137377450980392</v>
+        <v>0.32833019835841315</v>
       </c>
       <c r="R49" s="18">
         <f t="shared" si="11"/>
-        <v>84.054838791401465</v>
+        <v>80.979015660023009</v>
       </c>
       <c r="S49" s="19">
         <f t="shared" si="12"/>
-        <v>139.06872524243468</v>
+        <v>133.9797760742191</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
@@ -9405,11 +10311,11 @@
       </c>
       <c r="C50" s="1">
         <f>Elements!C12</f>
-        <v>7.2222222222222215E-2</v>
+        <v>7.441860465116279E-2</v>
       </c>
       <c r="D50" s="1">
         <f>Elements!R12</f>
-        <v>3.1318281136198105E-2</v>
+        <v>3.0616008852821838E-2</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="8" t="s">
@@ -9425,7 +10331,7 @@
       </c>
       <c r="L50" s="18">
         <f t="shared" si="10"/>
-        <v>3.1410193483010856E-2</v>
+        <v>3.070586018315077E-2</v>
       </c>
       <c r="M50" s="18">
         <f t="shared" si="6"/>
@@ -9433,23 +10339,23 @@
       </c>
       <c r="N50" s="18">
         <f t="shared" si="7"/>
-        <v>0.33988255718954247</v>
+        <v>0.35021887824897402</v>
       </c>
       <c r="O50" s="18">
         <f t="shared" si="8"/>
-        <v>0.3712927506725533</v>
+        <v>0.38092473843212477</v>
       </c>
       <c r="P50" s="18">
         <f t="shared" si="9"/>
-        <v>0.33988255718954247</v>
+        <v>0.35021887824897402</v>
       </c>
       <c r="R50" s="18">
         <f t="shared" si="11"/>
-        <v>85.164154904871964</v>
+        <v>83.010710891300391</v>
       </c>
       <c r="S50" s="19">
         <f t="shared" si="12"/>
-        <v>140.90408867908451</v>
+        <v>137.34121570050965</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
@@ -9540,4 +10446,1428 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="12" max="13" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" customWidth="1"/>
+    <col min="17" max="17" width="14.7265625" customWidth="1"/>
+    <col min="18" max="18" width="16.453125" customWidth="1"/>
+    <col min="19" max="19" width="16.81640625" customWidth="1"/>
+    <col min="20" max="20" width="12.1796875" customWidth="1"/>
+    <col min="21" max="21" width="21.7265625" customWidth="1"/>
+    <col min="22" max="22" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>Rare600!L1</f>
+        <v>Fair</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <f>Rare600!M1</f>
+        <v>Average</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <f>Rare600!N1</f>
+        <v>Good</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>Rare600!O1</f>
+        <v>Excellent</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>Rare600!P1</f>
+        <v>Extraordinary</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <f>I2*4</f>
+        <v>960</v>
+      </c>
+      <c r="I2">
+        <f>J2*5</f>
+        <v>240</v>
+      </c>
+      <c r="J2">
+        <f>K2*6</f>
+        <v>48</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <f>$B$2*2/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="M3" s="23"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <f>$B$2*1/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="10">
+        <v>21</v>
+      </c>
+      <c r="I4" s="10">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10">
+        <v>10</v>
+      </c>
+      <c r="K4" s="10">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8">
+        <f>Rare600!L5</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="I5" s="8">
+        <f>Rare600!M5</f>
+        <v>0.11578947368421053</v>
+      </c>
+      <c r="J5" s="8">
+        <f>Rare600!N5</f>
+        <v>0.12631578947368421</v>
+      </c>
+      <c r="K5" s="8">
+        <f>Rare600!O5</f>
+        <v>0.27894736842105261</v>
+      </c>
+      <c r="L5" s="8">
+        <f>Rare600!P5</f>
+        <v>0.16315789473684211</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="22">
+        <f>H4*H5/H$2</f>
+        <v>6.9078947368421042E-3</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" ref="I6:L6" si="0">I4*I5/I$2</f>
+        <v>7.2368421052631578E-3</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.20921052631578946</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.32631578947368423</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="15">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="18">
+        <f>SUM(H6:L6)*H7</f>
+        <v>2.8799342105263159</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="10">
+        <f>(5+12)/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="18"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="8">
+        <f>'Gifts, Normal'!B$22</f>
+        <v>0.2231404958677686</v>
+      </c>
+      <c r="I9" s="8">
+        <f>'Gifts, Normal'!C$22</f>
+        <v>0.28099173553719009</v>
+      </c>
+      <c r="J9" s="8">
+        <f>'Gifts, Normal'!D$22</f>
+        <v>0.47107438016528924</v>
+      </c>
+      <c r="K9" s="8">
+        <f>'Gifts, Normal'!E$22</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="22">
+        <f>H8*H9/H$2</f>
+        <v>1.975723140495868E-3</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" ref="I10:L10" si="1">I8*I9/I$2</f>
+        <v>1.1707988980716253E-3</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="1"/>
+        <v>9.8140495867768598E-3</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="1"/>
+        <v>3.0991735537190084E-3</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="15">
+        <f>4*$B$3</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="18">
+        <f>SUM(H10:L10)*H11</f>
+        <v>0.21412993572084482</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="10">
+        <f>Special600!B$6</f>
+        <v>16.2</v>
+      </c>
+      <c r="I12" s="10">
+        <f>Special600!C$6</f>
+        <v>8.5652173913043477</v>
+      </c>
+      <c r="J12" s="10">
+        <f>Special600!D$6</f>
+        <v>2.5757575757575757</v>
+      </c>
+      <c r="K12" s="10">
+        <f>Special600!E$6</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="18"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="8">
+        <f>Special600!B$3</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="I13" s="8">
+        <f>Special600!C$3</f>
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="J13" s="8">
+        <f>Special600!D$3</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K13" s="8">
+        <f>Special600!E$3</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="18"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="22">
+        <f>H12*H13/H$2</f>
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" ref="I14:L14" si="2">I12*I13/I$2</f>
+        <v>1.1400462962962961E-2</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="2"/>
+        <v>2.4594907407407409E-2</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="2"/>
+        <v>1.2152777777777778E-2</v>
+      </c>
+      <c r="L14" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="15">
+        <f>4*$B$4</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="18">
+        <f>SUM(H14:L14)*H15</f>
+        <v>0.33661265432098764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="G23"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="G24"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="18"/>
+      <c r="O24" s="24"/>
+      <c r="U24" s="23"/>
+    </row>
+    <row r="25" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="F25" s="8"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="O25" s="24"/>
+      <c r="U25" s="23"/>
+    </row>
+    <row r="26" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="F26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="18">
+        <f>M11+M15</f>
+        <v>0.55074259004183246</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="O26" s="24"/>
+      <c r="U26" s="23"/>
+    </row>
+    <row r="27" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="18">
+        <f>M7</f>
+        <v>2.8799342105263159</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="O27" s="24"/>
+      <c r="U27" s="23"/>
+    </row>
+    <row r="28" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="F28" s="8"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="O28" s="24"/>
+      <c r="U28" s="23"/>
+    </row>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="F29" s="8"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="O29" s="24"/>
+      <c r="U29" s="23"/>
+    </row>
+    <row r="30" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="F30" s="8"/>
+      <c r="G30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="18"/>
+      <c r="O30" s="24"/>
+      <c r="U30" s="23"/>
+    </row>
+    <row r="31" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="F31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>21</v>
+      </c>
+      <c r="K31">
+        <v>25</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="N31" s="18"/>
+      <c r="O31" s="24"/>
+      <c r="U31" s="23"/>
+    </row>
+    <row r="32" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="F32" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" s="26">
+        <f>H31/H$2</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="26">
+        <f>I31/I$2</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="J32" s="26">
+        <f t="shared" ref="J32:L32" si="3">J31/J$2</f>
+        <v>0.4375</v>
+      </c>
+      <c r="K32" s="26">
+        <f t="shared" si="3"/>
+        <v>3.125</v>
+      </c>
+      <c r="L32" s="26">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="M32" s="23">
+        <f>SUM(H32:L32)</f>
+        <v>31.620833333333334</v>
+      </c>
+      <c r="N32" s="18"/>
+      <c r="O32" s="24"/>
+      <c r="U32" s="23"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="J33">
+        <v>36</v>
+      </c>
+      <c r="K33">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>48</v>
+      </c>
+      <c r="N33" s="18"/>
+      <c r="O33" s="24"/>
+      <c r="U33" s="23"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F34" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" s="26">
+        <f>H33/H$2</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="26">
+        <f>I33/I$2</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J34" s="26">
+        <f t="shared" ref="J34:L34" si="4">J33/J$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="K34" s="26">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="L34" s="26">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="M34" s="23">
+        <f>SUM(H34:L34)</f>
+        <v>52.316666666666663</v>
+      </c>
+      <c r="N34" s="18"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F35" s="24"/>
+      <c r="G35"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="18"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F36" s="24"/>
+      <c r="G36"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="18"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F37" s="24"/>
+      <c r="G37"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="18"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F38" s="24"/>
+      <c r="G38"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="18"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39"/>
+      <c r="M39" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" t="s">
+        <v>105</v>
+      </c>
+      <c r="O39" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="P39" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>Elements!A2</f>
+        <v>Fire</v>
+      </c>
+      <c r="B40" s="1">
+        <f>Elements!O2</f>
+        <v>9.8086124401913874E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <f>Elements!C2</f>
+        <v>8.3720930232558138E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8.3720930232558138E-2</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18" t="str">
+        <f t="shared" ref="K40:K50" si="5">A40</f>
+        <v>Fire</v>
+      </c>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18">
+        <f t="shared" ref="M40:M50" si="6">$G$26*$D40</f>
+        <v>4.6108681956990624E-2</v>
+      </c>
+      <c r="N40" s="18">
+        <f t="shared" ref="N40:N49" si="7">$M$7*$C40</f>
+        <v>0.24111077111383108</v>
+      </c>
+      <c r="O40" s="18">
+        <f t="shared" ref="O40:O50" si="8">N40+M40</f>
+        <v>0.2872194530708217</v>
+      </c>
+      <c r="P40" s="18">
+        <f t="shared" ref="P40:P50" si="9">$M$32/O40</f>
+        <v>110.09293763099105</v>
+      </c>
+      <c r="Q40" s="19">
+        <f t="shared" ref="Q40:Q50" si="10">$M$34/O40</f>
+        <v>182.14875805701982</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>Elements!A3</f>
+        <v>Wind</v>
+      </c>
+      <c r="B41" s="1">
+        <f>Elements!O3</f>
+        <v>0.12850307587149692</v>
+      </c>
+      <c r="C41" s="1">
+        <f>Elements!C3</f>
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Wind</v>
+      </c>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18">
+        <f t="shared" si="6"/>
+        <v>6.4039836051375865E-2</v>
+      </c>
+      <c r="N41" s="18">
+        <f t="shared" si="7"/>
+        <v>0.33487607099143207</v>
+      </c>
+      <c r="O41" s="18">
+        <f t="shared" si="8"/>
+        <v>0.39891590704280794</v>
+      </c>
+      <c r="P41" s="18">
+        <f t="shared" si="9"/>
+        <v>79.266915094313546</v>
+      </c>
+      <c r="Q41" s="19">
+        <f t="shared" si="10"/>
+        <v>131.14710580105427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f>Elements!A4</f>
+        <v>Earth</v>
+      </c>
+      <c r="B42" s="1">
+        <f>Elements!O4</f>
+        <v>0.11380724538619276</v>
+      </c>
+      <c r="C42" s="1">
+        <f>Elements!C4</f>
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Earth</v>
+      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18">
+        <f t="shared" si="6"/>
+        <v>6.4039836051375865E-2</v>
+      </c>
+      <c r="N42" s="18">
+        <f t="shared" si="7"/>
+        <v>0.33487607099143207</v>
+      </c>
+      <c r="O42" s="18">
+        <f t="shared" si="8"/>
+        <v>0.39891590704280794</v>
+      </c>
+      <c r="P42" s="18">
+        <f t="shared" si="9"/>
+        <v>79.266915094313546</v>
+      </c>
+      <c r="Q42" s="19">
+        <f t="shared" si="10"/>
+        <v>131.14710580105427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>Elements!A5</f>
+        <v>Water</v>
+      </c>
+      <c r="B43" s="1">
+        <f>Elements!O5</f>
+        <v>0.11893369788106631</v>
+      </c>
+      <c r="C43" s="1">
+        <f>Elements!C5</f>
+        <v>0.12558139534883722</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.12558139534883722</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Water</v>
+      </c>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18">
+        <f t="shared" si="6"/>
+        <v>6.9163022935485943E-2</v>
+      </c>
+      <c r="N43" s="18">
+        <f t="shared" si="7"/>
+        <v>0.3616661566707467</v>
+      </c>
+      <c r="O43" s="18">
+        <f t="shared" si="8"/>
+        <v>0.43082917960623263</v>
+      </c>
+      <c r="P43" s="18">
+        <f t="shared" si="9"/>
+        <v>73.395291753994016</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="10"/>
+        <v>121.43250537134654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>Elements!A6</f>
+        <v>Plant</v>
+      </c>
+      <c r="B44" s="1">
+        <f>Elements!O6</f>
+        <v>0.10184552289815448</v>
+      </c>
+      <c r="C44" s="1">
+        <f>Elements!C6</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Plant</v>
+      </c>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18">
+        <f t="shared" si="6"/>
+        <v>3.842390163082552E-2</v>
+      </c>
+      <c r="N44" s="18">
+        <f t="shared" si="7"/>
+        <v>0.20092564259485926</v>
+      </c>
+      <c r="O44" s="18">
+        <f t="shared" si="8"/>
+        <v>0.23934954422568477</v>
+      </c>
+      <c r="P44" s="18">
+        <f t="shared" si="9"/>
+        <v>132.11152515718925</v>
+      </c>
+      <c r="Q44" s="19">
+        <f t="shared" si="10"/>
+        <v>218.57850966842378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>Elements!A7</f>
+        <v>Metal</v>
+      </c>
+      <c r="B45" s="1">
+        <f>Elements!O7</f>
+        <v>9.6719070403280927E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <f>Elements!C7</f>
+        <v>7.441860465116279E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7.441860465116279E-2</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Metal</v>
+      </c>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18">
+        <f t="shared" si="6"/>
+        <v>4.0985495072880553E-2</v>
+      </c>
+      <c r="N45" s="18">
+        <f t="shared" si="7"/>
+        <v>0.21432068543451654</v>
+      </c>
+      <c r="O45" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25530618050739712</v>
+      </c>
+      <c r="P45" s="18">
+        <f t="shared" si="9"/>
+        <v>123.8545548348649</v>
+      </c>
+      <c r="Q45" s="19">
+        <f t="shared" si="10"/>
+        <v>204.91735281414728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>Elements!A8</f>
+        <v>Energy</v>
+      </c>
+      <c r="B46" s="1">
+        <f>Elements!O8</f>
+        <v>9.9111414900888581E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <f>Elements!C8</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Energy</v>
+      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18">
+        <f t="shared" si="6"/>
+        <v>5.1231868841100696E-2</v>
+      </c>
+      <c r="N46" s="18">
+        <f t="shared" si="7"/>
+        <v>0.26790085679314568</v>
+      </c>
+      <c r="O46" s="18">
+        <f t="shared" si="8"/>
+        <v>0.31913272563424638</v>
+      </c>
+      <c r="P46" s="18">
+        <f t="shared" si="9"/>
+        <v>99.083643867891922</v>
+      </c>
+      <c r="Q46" s="19">
+        <f t="shared" si="10"/>
+        <v>163.93388225131781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f>Elements!A9</f>
+        <v>Void</v>
+      </c>
+      <c r="B47" s="1">
+        <f>Elements!O9</f>
+        <v>9.0225563909774431E-2</v>
+      </c>
+      <c r="C47" s="1">
+        <f>Elements!C9</f>
+        <v>0.10697674418604651</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.10697674418604651</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Void</v>
+      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18">
+        <f t="shared" si="6"/>
+        <v>5.89166491672658E-2</v>
+      </c>
+      <c r="N47" s="18">
+        <f t="shared" si="7"/>
+        <v>0.30808598531211751</v>
+      </c>
+      <c r="O47" s="18">
+        <f t="shared" si="8"/>
+        <v>0.36700263447938331</v>
+      </c>
+      <c r="P47" s="18">
+        <f t="shared" si="9"/>
+        <v>86.159690319906034</v>
+      </c>
+      <c r="Q47" s="19">
+        <f t="shared" si="10"/>
+        <v>142.55120195766767</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>Elements!A10</f>
+        <v>Light</v>
+      </c>
+      <c r="B48" s="1">
+        <f>Elements!O10</f>
+        <v>5.6390977443609019E-2</v>
+      </c>
+      <c r="C48" s="1">
+        <f>Elements!C10</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Light</v>
+      </c>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18">
+        <f t="shared" si="6"/>
+        <v>3.842390163082552E-2</v>
+      </c>
+      <c r="N48" s="18">
+        <f t="shared" si="7"/>
+        <v>0.20092564259485926</v>
+      </c>
+      <c r="O48" s="18">
+        <f t="shared" si="8"/>
+        <v>0.23934954422568477</v>
+      </c>
+      <c r="P48" s="18">
+        <f t="shared" si="9"/>
+        <v>132.11152515718925</v>
+      </c>
+      <c r="Q48" s="19">
+        <f t="shared" si="10"/>
+        <v>218.57850966842378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>Elements!A11</f>
+        <v>Shadow</v>
+      </c>
+      <c r="B49" s="1">
+        <f>Elements!O11</f>
+        <v>6.2542720437457275E-2</v>
+      </c>
+      <c r="C49" s="1">
+        <f>Elements!C11</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Shadow</v>
+      </c>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18">
+        <f t="shared" si="6"/>
+        <v>3.842390163082552E-2</v>
+      </c>
+      <c r="N49" s="18">
+        <f t="shared" si="7"/>
+        <v>0.20092564259485926</v>
+      </c>
+      <c r="O49" s="18">
+        <f t="shared" si="8"/>
+        <v>0.23934954422568477</v>
+      </c>
+      <c r="P49" s="18">
+        <f t="shared" si="9"/>
+        <v>132.11152515718925</v>
+      </c>
+      <c r="Q49" s="19">
+        <f t="shared" si="10"/>
+        <v>218.57850966842378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f>Elements!A12</f>
+        <v>Legend</v>
+      </c>
+      <c r="B50" s="1">
+        <f>Elements!O12</f>
+        <v>3.3834586466165412E-2</v>
+      </c>
+      <c r="C50" s="1">
+        <f>Elements!C12</f>
+        <v>7.441860465116279E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7.441860465116279E-2</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Legend</v>
+      </c>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18">
+        <f t="shared" si="6"/>
+        <v>4.0985495072880553E-2</v>
+      </c>
+      <c r="N50" s="18">
+        <f>$M$7*$C50</f>
+        <v>0.21432068543451654</v>
+      </c>
+      <c r="O50" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25530618050739712</v>
+      </c>
+      <c r="P50" s="18">
+        <f t="shared" si="9"/>
+        <v>123.8545548348649</v>
+      </c>
+      <c r="Q50" s="19">
+        <f t="shared" si="10"/>
+        <v>204.91735281414728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G51"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="G55"/>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="G56"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="G57"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="G58"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G59"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G60"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G61"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G62"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G63"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G64"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G65"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="67" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="T67" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>